--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143858.502282285</v>
+        <v>2143179.245612323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5600077.191480965</v>
+        <v>5600077.191480962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736545</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.4427899637702</v>
+        <v>210.4052048309389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>195.4354109659791</v>
       </c>
       <c r="E11" t="n">
-        <v>217.1775485358854</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>236.3493646238626</v>
+        <v>236.3493646238618</v>
       </c>
       <c r="G11" t="n">
-        <v>237.6699315459151</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>149.5579236355866</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.77294412754782</v>
+        <v>45.77294412754705</v>
       </c>
       <c r="U11" t="n">
-        <v>8.818008687668213</v>
+        <v>78.62715268604677</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>159.9491672039485</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>185.2492666819055</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>216.28827711433</v>
       </c>
       <c r="V12" t="n">
-        <v>56.6531655822383</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>65.24239591995354</v>
       </c>
       <c r="X12" t="n">
-        <v>22.2775040819146</v>
+        <v>119.1009233238231</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>16.93579892784743</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.059500838467272</v>
+        <v>8.059500838466505</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.12269904515166</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T13" t="n">
-        <v>229.6728619675116</v>
+        <v>56.01254780844204</v>
       </c>
       <c r="U13" t="n">
-        <v>110.6430318713824</v>
+        <v>185.7881659519965</v>
       </c>
       <c r="V13" t="n">
-        <v>159.6127713187024</v>
+        <v>84.4676372380921</v>
       </c>
       <c r="W13" t="n">
-        <v>109.6345233087061</v>
+        <v>109.6345233087054</v>
       </c>
       <c r="X13" t="n">
-        <v>55.27962530450924</v>
+        <v>55.27962530450847</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.15449306057693</v>
+        <v>46.15449306057616</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.4427899637702</v>
+        <v>216.4427899637694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>217.1775485358855</v>
+        <v>217.1775485358846</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>130.8488775791605</v>
       </c>
       <c r="G14" t="n">
-        <v>237.6699315459151</v>
+        <v>237.6699315459143</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1520215502179</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45.77294412754785</v>
+        <v>45.77294412754699</v>
       </c>
       <c r="U14" t="n">
-        <v>78.62715268604757</v>
+        <v>78.62715268604671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>185.2492666819054</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.9461227108516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>38.832586517179</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T15" t="n">
-        <v>178.7796539147224</v>
+        <v>144.4569183208311</v>
       </c>
       <c r="U15" t="n">
-        <v>42.62796295526129</v>
+        <v>42.62796295526044</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>65.24239591995348</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>22.27750408191378</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>16.93579892784737</v>
       </c>
     </row>
     <row r="16">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.059500838467301</v>
+        <v>8.059500838466448</v>
       </c>
       <c r="C16" t="n">
-        <v>97.26427399916327</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.12269904515168</v>
+        <v>108.2678331257661</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01254780844283</v>
+        <v>56.01254780844198</v>
       </c>
       <c r="U16" t="n">
-        <v>110.6430318713824</v>
+        <v>110.6430318713815</v>
       </c>
       <c r="V16" t="n">
-        <v>84.46763723809289</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>109.6345233087062</v>
+        <v>109.6345233087053</v>
       </c>
       <c r="X16" t="n">
-        <v>55.27962530450927</v>
+        <v>55.27962530450841</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15449306057695</v>
+        <v>46.1544930605761</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>115.4434584561724</v>
+        <v>115.4434584561716</v>
       </c>
       <c r="C17" t="n">
-        <v>103.4547754138541</v>
+        <v>103.4547754138533</v>
       </c>
       <c r="D17" t="n">
-        <v>94.4360794583821</v>
+        <v>94.4360794583813</v>
       </c>
       <c r="E17" t="n">
-        <v>116.1782170282876</v>
+        <v>116.1782170282868</v>
       </c>
       <c r="F17" t="n">
-        <v>135.3500331162648</v>
+        <v>135.350033116264</v>
       </c>
       <c r="G17" t="n">
-        <v>136.6706000383173</v>
+        <v>136.6706000383165</v>
       </c>
       <c r="H17" t="n">
-        <v>48.55859212798879</v>
+        <v>48.55859212798799</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>58.9498356963515</v>
+        <v>58.9498356963507</v>
       </c>
       <c r="W17" t="n">
-        <v>84.2499351743084</v>
+        <v>84.24993517430761</v>
       </c>
       <c r="X17" t="n">
-        <v>103.550193407055</v>
+        <v>103.5501934070542</v>
       </c>
       <c r="Y17" t="n">
-        <v>114.9467912032538</v>
+        <v>114.946791203254</v>
       </c>
     </row>
     <row r="18">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V18" t="n">
-        <v>186.9256730954036</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.222079178588317</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>101.3196934630521</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>112.9948579458883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>9.64370036378455</v>
+        <v>9.643700363783754</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>8.635191801108306</v>
+        <v>8.63519180110751</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.4434584561724</v>
+        <v>115.4434584561716</v>
       </c>
       <c r="C20" t="n">
-        <v>103.4547754138541</v>
+        <v>103.4547754138533</v>
       </c>
       <c r="D20" t="n">
-        <v>94.4360794583821</v>
+        <v>94.4360794583813</v>
       </c>
       <c r="E20" t="n">
-        <v>116.1782170282876</v>
+        <v>116.1782170282868</v>
       </c>
       <c r="F20" t="n">
-        <v>135.3500331162648</v>
+        <v>135.350033116264</v>
       </c>
       <c r="G20" t="n">
-        <v>136.6706000383173</v>
+        <v>136.6706000383165</v>
       </c>
       <c r="H20" t="n">
-        <v>48.55859212798879</v>
+        <v>48.55859212798799</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>58.9498356963515</v>
+        <v>58.9498356963507</v>
       </c>
       <c r="W20" t="n">
-        <v>84.2499351743084</v>
+        <v>84.24993517430761</v>
       </c>
       <c r="X20" t="n">
-        <v>103.5501934070559</v>
+        <v>103.5501934070542</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.9467912032538</v>
+        <v>114.946791203253</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2169,7 +2169,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>186.9256730954044</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>47.06264989591302</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>149.0266846470967</v>
+        <v>284.3033460304511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>8.635191801108306</v>
+        <v>261.093147480336</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.4434584561724</v>
+        <v>115.4434584561716</v>
       </c>
       <c r="C23" t="n">
-        <v>103.4547754138541</v>
+        <v>103.4547754138533</v>
       </c>
       <c r="D23" t="n">
-        <v>94.4360794583821</v>
+        <v>94.4360794583813</v>
       </c>
       <c r="E23" t="n">
-        <v>116.1782170282876</v>
+        <v>116.1782170282868</v>
       </c>
       <c r="F23" t="n">
-        <v>135.3500331162648</v>
+        <v>135.350033116264</v>
       </c>
       <c r="G23" t="n">
-        <v>136.6706000383173</v>
+        <v>136.6706000383165</v>
       </c>
       <c r="H23" t="n">
-        <v>48.55859212798879</v>
+        <v>48.55859212798799</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>58.9498356963515</v>
+        <v>58.9498356963507</v>
       </c>
       <c r="W23" t="n">
-        <v>84.2499351743084</v>
+        <v>84.24993517430761</v>
       </c>
       <c r="X23" t="n">
-        <v>103.550193407055</v>
+        <v>103.5501934070542</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.9467912032538</v>
+        <v>114.946791203253</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2400,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S24" t="n">
         <v>145.1823065335695</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4768923348651</v>
+        <v>116.5581766036878</v>
       </c>
       <c r="U24" t="n">
-        <v>67.72235687750481</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6689122231617</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>88.61909601891185</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.64370036378455</v>
+        <v>9.643700363783754</v>
       </c>
       <c r="V25" t="n">
-        <v>10.48622220022453</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289.1037726152412</v>
+        <v>289.1037726152411</v>
       </c>
       <c r="C26" t="n">
-        <v>277.1150895729229</v>
+        <v>277.1150895729228</v>
       </c>
       <c r="D26" t="n">
-        <v>268.0963936174509</v>
+        <v>268.0963936174508</v>
       </c>
       <c r="E26" t="n">
         <v>289.8385311873564</v>
       </c>
       <c r="F26" t="n">
-        <v>309.0103472753336</v>
+        <v>309.0103472753335</v>
       </c>
       <c r="G26" t="n">
-        <v>310.3309141973861</v>
+        <v>310.330914197386</v>
       </c>
       <c r="H26" t="n">
-        <v>222.2189062870576</v>
+        <v>222.2189062870575</v>
       </c>
       <c r="I26" t="n">
-        <v>46.46854094274049</v>
+        <v>46.46854094274045</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39543063210688</v>
+        <v>70.39543063210684</v>
       </c>
       <c r="T26" t="n">
-        <v>118.4339267790188</v>
+        <v>118.4339267790187</v>
       </c>
       <c r="U26" t="n">
-        <v>151.2881353375185</v>
+        <v>151.2881353375184</v>
       </c>
       <c r="V26" t="n">
-        <v>232.6101498554203</v>
+        <v>232.6101498554202</v>
       </c>
       <c r="W26" t="n">
-        <v>257.9102493333772</v>
+        <v>257.9102493333771</v>
       </c>
       <c r="X26" t="n">
-        <v>277.2105075661238</v>
+        <v>277.2105075661237</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.6071053623226</v>
+        <v>288.6071053623225</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72048348993822</v>
+        <v>80.72048348993818</v>
       </c>
       <c r="C28" t="n">
-        <v>66.9204783353387</v>
+        <v>66.92047833533866</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54184273291709</v>
+        <v>50.54184273291705</v>
       </c>
       <c r="E28" t="n">
-        <v>49.48959258869654</v>
+        <v>49.4895925886965</v>
       </c>
       <c r="F28" t="n">
-        <v>49.95651691688285</v>
+        <v>49.9565169168828</v>
       </c>
       <c r="G28" t="n">
-        <v>65.95638307366409</v>
+        <v>65.95638307366404</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33604035050166</v>
+        <v>54.33604035050162</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49659739496568</v>
+        <v>33.49659739496563</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66958071556392</v>
+        <v>34.66958071556388</v>
       </c>
       <c r="S28" t="n">
         <v>105.7836816966226</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6735304599138</v>
+        <v>128.6735304599137</v>
       </c>
       <c r="U28" t="n">
         <v>183.3040145228533</v>
@@ -2773,13 +2773,13 @@
         <v>157.1286198895638</v>
       </c>
       <c r="W28" t="n">
-        <v>182.2955059601771</v>
+        <v>182.295505960177</v>
       </c>
       <c r="X28" t="n">
-        <v>127.9406079559802</v>
+        <v>127.9406079559801</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.8154757120479</v>
+        <v>118.8154757120478</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>289.1037726152412</v>
+        <v>289.1037726152411</v>
       </c>
       <c r="C29" t="n">
-        <v>277.1150895729229</v>
+        <v>277.1150895729228</v>
       </c>
       <c r="D29" t="n">
-        <v>268.0963936174509</v>
+        <v>268.0963936174508</v>
       </c>
       <c r="E29" t="n">
         <v>289.8385311873564</v>
       </c>
       <c r="F29" t="n">
-        <v>309.0103472753336</v>
+        <v>309.0103472753335</v>
       </c>
       <c r="G29" t="n">
-        <v>310.3309141973861</v>
+        <v>310.330914197386</v>
       </c>
       <c r="H29" t="n">
-        <v>222.2189062870576</v>
+        <v>222.2189062870575</v>
       </c>
       <c r="I29" t="n">
-        <v>46.46854094274049</v>
+        <v>46.46854094274045</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.39543063210688</v>
+        <v>70.39543063210684</v>
       </c>
       <c r="T29" t="n">
-        <v>118.4339267790188</v>
+        <v>118.4339267790187</v>
       </c>
       <c r="U29" t="n">
-        <v>151.2881353375185</v>
+        <v>151.2881353375184</v>
       </c>
       <c r="V29" t="n">
-        <v>232.6101498554203</v>
+        <v>232.6101498554202</v>
       </c>
       <c r="W29" t="n">
-        <v>257.9102493333772</v>
+        <v>257.9102493333771</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2105075661238</v>
+        <v>277.2105075661237</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.6071053623226</v>
+        <v>288.6071053623225</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72048348993822</v>
+        <v>80.72048348993818</v>
       </c>
       <c r="C31" t="n">
-        <v>66.9204783353387</v>
+        <v>66.92047833533866</v>
       </c>
       <c r="D31" t="n">
-        <v>50.54184273291709</v>
+        <v>50.54184273291705</v>
       </c>
       <c r="E31" t="n">
-        <v>49.48959258869654</v>
+        <v>49.4895925886965</v>
       </c>
       <c r="F31" t="n">
-        <v>49.95651691688285</v>
+        <v>49.9565169168828</v>
       </c>
       <c r="G31" t="n">
-        <v>65.95638307366409</v>
+        <v>65.95638307366404</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33604035050166</v>
+        <v>54.33604035050162</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49659739496568</v>
+        <v>33.49659739496563</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66958071556392</v>
+        <v>34.66958071556388</v>
       </c>
       <c r="S31" t="n">
         <v>105.7836816966226</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6735304599138</v>
+        <v>128.6735304599137</v>
       </c>
       <c r="U31" t="n">
         <v>183.3040145228533</v>
@@ -3010,13 +3010,13 @@
         <v>157.1286198895638</v>
       </c>
       <c r="W31" t="n">
-        <v>182.2955059601771</v>
+        <v>182.295505960177</v>
       </c>
       <c r="X31" t="n">
-        <v>127.9406079559802</v>
+        <v>127.9406079559801</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.8154757120479</v>
+        <v>118.8154757120478</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.1037726152411</v>
+        <v>289.1037726152412</v>
       </c>
       <c r="C32" t="n">
-        <v>277.1150895729228</v>
+        <v>277.1150895729229</v>
       </c>
       <c r="D32" t="n">
-        <v>268.0963936174508</v>
+        <v>268.0963936174509</v>
       </c>
       <c r="E32" t="n">
         <v>289.8385311873564</v>
       </c>
       <c r="F32" t="n">
-        <v>309.0103472753335</v>
+        <v>309.0103472753336</v>
       </c>
       <c r="G32" t="n">
-        <v>310.330914197386</v>
+        <v>310.3309141973861</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2189062870575</v>
+        <v>222.2189062870576</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46854094274046</v>
+        <v>46.4685409427405</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39543063210685</v>
+        <v>70.39543063210689</v>
       </c>
       <c r="T32" t="n">
-        <v>118.4339267790187</v>
+        <v>118.4339267790188</v>
       </c>
       <c r="U32" t="n">
-        <v>151.2881353375184</v>
+        <v>151.2881353375185</v>
       </c>
       <c r="V32" t="n">
-        <v>232.6101498554202</v>
+        <v>232.6101498554203</v>
       </c>
       <c r="W32" t="n">
-        <v>257.9102493333771</v>
+        <v>257.9102493333772</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2105075661237</v>
+        <v>277.2105075661238</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.6071053623225</v>
+        <v>288.6071053623226</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72048348993819</v>
+        <v>80.72048348993823</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92047833533867</v>
+        <v>66.92047833533871</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54184273291706</v>
+        <v>50.5418427329171</v>
       </c>
       <c r="E34" t="n">
-        <v>49.48959258869651</v>
+        <v>49.48959258869655</v>
       </c>
       <c r="F34" t="n">
-        <v>49.95651691688282</v>
+        <v>49.95651691688286</v>
       </c>
       <c r="G34" t="n">
-        <v>65.95638307366404</v>
+        <v>65.9563830736641</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33604035050162</v>
+        <v>54.33604035050168</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49659739496563</v>
+        <v>33.49659739496569</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6695807155639</v>
+        <v>34.66958071556394</v>
       </c>
       <c r="S34" t="n">
         <v>105.7836816966226</v>
       </c>
       <c r="T34" t="n">
-        <v>128.6735304599137</v>
+        <v>128.6735304599138</v>
       </c>
       <c r="U34" t="n">
         <v>183.3040145228533</v>
@@ -3247,13 +3247,13 @@
         <v>157.1286198895638</v>
       </c>
       <c r="W34" t="n">
-        <v>182.295505960177</v>
+        <v>182.2955059601771</v>
       </c>
       <c r="X34" t="n">
         <v>127.9406079559802</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8154757120478</v>
+        <v>118.8154757120479</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.5711157271344</v>
+        <v>212.571115727135</v>
       </c>
       <c r="C35" t="n">
-        <v>200.5824326848161</v>
+        <v>200.5824326848167</v>
       </c>
       <c r="D35" t="n">
-        <v>191.5637367293441</v>
+        <v>191.5637367293447</v>
       </c>
       <c r="E35" t="n">
-        <v>213.3058742992496</v>
+        <v>213.3058742992502</v>
       </c>
       <c r="F35" t="n">
-        <v>232.4776903872268</v>
+        <v>232.4776903872274</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7982573092793</v>
+        <v>233.7982573092798</v>
       </c>
       <c r="H35" t="n">
-        <v>145.6862493989508</v>
+        <v>145.6862493989514</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.901269890912</v>
+        <v>41.90126989091257</v>
       </c>
       <c r="U35" t="n">
-        <v>74.75547844941173</v>
+        <v>74.75547844941229</v>
       </c>
       <c r="V35" t="n">
-        <v>156.0774929673135</v>
+        <v>156.0774929673141</v>
       </c>
       <c r="W35" t="n">
-        <v>181.3775924452704</v>
+        <v>181.377592445271</v>
       </c>
       <c r="X35" t="n">
-        <v>200.677850678017</v>
+        <v>200.6778506780176</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.0744484742158</v>
+        <v>212.0744484742164</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3360,10 +3360,10 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I36" t="n">
-        <v>56.41154230737835</v>
+        <v>47.92634311975005</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>185.4768923348651</v>
       </c>
       <c r="U36" t="n">
-        <v>158.0177380230267</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>4.187826601832029</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.25102480851584</v>
+        <v>29.25102480851641</v>
       </c>
       <c r="T37" t="n">
-        <v>52.14087357180699</v>
+        <v>154.3877273088638</v>
       </c>
       <c r="U37" t="n">
-        <v>106.7713576347466</v>
+        <v>106.7713576347471</v>
       </c>
       <c r="V37" t="n">
-        <v>80.59596300145705</v>
+        <v>80.59596300145762</v>
       </c>
       <c r="W37" t="n">
-        <v>105.7628490720703</v>
+        <v>105.7628490720709</v>
       </c>
       <c r="X37" t="n">
-        <v>51.40795106787343</v>
+        <v>51.407951067874</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.5296725610012</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.5711157271344</v>
+        <v>212.571115727135</v>
       </c>
       <c r="C38" t="n">
-        <v>200.5824326848161</v>
+        <v>200.5824326848167</v>
       </c>
       <c r="D38" t="n">
-        <v>191.5637367293441</v>
+        <v>191.5637367293447</v>
       </c>
       <c r="E38" t="n">
-        <v>213.3058742992496</v>
+        <v>213.3058742992502</v>
       </c>
       <c r="F38" t="n">
-        <v>232.4776903872268</v>
+        <v>232.4776903872274</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7982573092793</v>
+        <v>233.7982573092798</v>
       </c>
       <c r="H38" t="n">
-        <v>145.6862493989508</v>
+        <v>145.6862493989514</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.901269890912</v>
+        <v>41.90126989091257</v>
       </c>
       <c r="U38" t="n">
-        <v>74.75547844941173</v>
+        <v>74.75547844941229</v>
       </c>
       <c r="V38" t="n">
-        <v>156.0774929673135</v>
+        <v>156.0774929673141</v>
       </c>
       <c r="W38" t="n">
-        <v>181.3775924452704</v>
+        <v>181.377592445271</v>
       </c>
       <c r="X38" t="n">
-        <v>200.677850678017</v>
+        <v>200.6778506780176</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.0744484742158</v>
+        <v>212.0744484742164</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>158.2276392475367</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -3597,7 +3597,7 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S39" t="n">
-        <v>86.38350632679483</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T39" t="n">
         <v>185.4768923348651</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.18782660183146</v>
+        <v>4.187826601832029</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>87.10870031532644</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>206.7830132042204</v>
+        <v>29.25102480851641</v>
       </c>
       <c r="T40" t="n">
-        <v>154.3877273088672</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U40" t="n">
-        <v>106.7713576347466</v>
+        <v>106.7713576347471</v>
       </c>
       <c r="V40" t="n">
-        <v>80.59596300145705</v>
+        <v>80.59596300145762</v>
       </c>
       <c r="W40" t="n">
-        <v>105.7628490720703</v>
+        <v>105.7628490720709</v>
       </c>
       <c r="X40" t="n">
-        <v>51.40795106787343</v>
+        <v>51.407951067874</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.28281882394111</v>
+        <v>42.28281882394168</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.5711157271344</v>
+        <v>212.571115727135</v>
       </c>
       <c r="C41" t="n">
-        <v>200.5824326848161</v>
+        <v>200.5824326848167</v>
       </c>
       <c r="D41" t="n">
-        <v>191.5637367293441</v>
+        <v>191.5637367293447</v>
       </c>
       <c r="E41" t="n">
-        <v>213.3058742992496</v>
+        <v>213.3058742992502</v>
       </c>
       <c r="F41" t="n">
-        <v>232.4776903872268</v>
+        <v>232.4776903872274</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7982573092793</v>
+        <v>233.7982573092798</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6862493989508</v>
+        <v>145.6862493989514</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.901269890912</v>
+        <v>41.90126989091257</v>
       </c>
       <c r="U41" t="n">
-        <v>74.75547844941173</v>
+        <v>74.75547844941229</v>
       </c>
       <c r="V41" t="n">
-        <v>156.0774929673135</v>
+        <v>156.0774929673141</v>
       </c>
       <c r="W41" t="n">
-        <v>181.3775924452704</v>
+        <v>181.377592445271</v>
       </c>
       <c r="X41" t="n">
-        <v>200.677850678017</v>
+        <v>200.6778506780176</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.0744484742158</v>
+        <v>212.0744484742164</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.1133910541359</v>
+        <v>68.84285196283936</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S42" t="n">
-        <v>125.7443539594451</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T42" t="n">
         <v>185.4768923348651</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.18782660183146</v>
+        <v>4.187826601832029</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.25102480851584</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T43" t="n">
-        <v>229.6728619675116</v>
+        <v>154.3877273088638</v>
       </c>
       <c r="U43" t="n">
-        <v>106.7713576347466</v>
+        <v>106.7713576347471</v>
       </c>
       <c r="V43" t="n">
-        <v>80.59596300145705</v>
+        <v>80.59596300145762</v>
       </c>
       <c r="W43" t="n">
-        <v>208.0097028091305</v>
+        <v>105.7628490720709</v>
       </c>
       <c r="X43" t="n">
-        <v>51.40795106787343</v>
+        <v>51.407951067874</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.28281882394111</v>
+        <v>42.28281882394168</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.5711157271344</v>
+        <v>212.571115727135</v>
       </c>
       <c r="C44" t="n">
-        <v>200.5824326848161</v>
+        <v>200.5824326848168</v>
       </c>
       <c r="D44" t="n">
-        <v>191.5637367293441</v>
+        <v>191.5637367293447</v>
       </c>
       <c r="E44" t="n">
-        <v>213.3058742992496</v>
+        <v>213.3058742992503</v>
       </c>
       <c r="F44" t="n">
-        <v>232.4776903872268</v>
+        <v>232.4776903872274</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7982573092793</v>
+        <v>233.7982573092799</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6862493989508</v>
+        <v>145.6862493989514</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.90126989091198</v>
+        <v>41.90126989091263</v>
       </c>
       <c r="U44" t="n">
-        <v>74.7554784494117</v>
+        <v>74.75547844941235</v>
       </c>
       <c r="V44" t="n">
-        <v>156.0774929673135</v>
+        <v>156.0774929673141</v>
       </c>
       <c r="W44" t="n">
-        <v>181.3775924452704</v>
+        <v>181.377592445271</v>
       </c>
       <c r="X44" t="n">
-        <v>200.677850678017</v>
+        <v>200.6778506780176</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.0744484742158</v>
+        <v>212.0744484742164</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1133910541359</v>
+        <v>29.48200433018937</v>
       </c>
       <c r="H45" t="n">
         <v>95.77238994002833</v>
       </c>
       <c r="I45" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S45" t="n">
         <v>145.1823065335695</v>
@@ -4110,7 +4110,7 @@
         <v>185.4768923348651</v>
       </c>
       <c r="U45" t="n">
-        <v>101.0779346001771</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.187826601831432</v>
+        <v>4.187826601832086</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.6689122231617</v>
       </c>
       <c r="S46" t="n">
-        <v>206.7830132042204</v>
+        <v>29.25102480851647</v>
       </c>
       <c r="T46" t="n">
-        <v>52.14087357180696</v>
+        <v>52.14087357180762</v>
       </c>
       <c r="U46" t="n">
-        <v>106.7713576347465</v>
+        <v>250.8812875443453</v>
       </c>
       <c r="V46" t="n">
-        <v>182.8428167385175</v>
+        <v>80.59596300145768</v>
       </c>
       <c r="W46" t="n">
-        <v>105.7628490720703</v>
+        <v>105.7628490720709</v>
       </c>
       <c r="X46" t="n">
-        <v>51.4079510678734</v>
+        <v>51.40795106787405</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.28281882394108</v>
+        <v>42.28281882394174</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>872.1659896895786</v>
+        <v>459.064986910378</v>
       </c>
       <c r="C11" t="n">
-        <v>872.1659896895786</v>
+        <v>459.064986910378</v>
       </c>
       <c r="D11" t="n">
-        <v>872.1659896895786</v>
+        <v>261.6554808841365</v>
       </c>
       <c r="E11" t="n">
-        <v>652.7947285422196</v>
+        <v>261.6554808841365</v>
       </c>
       <c r="F11" t="n">
-        <v>414.057996598924</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="G11" t="n">
-        <v>173.9873586737575</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="H11" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="I11" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="J11" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="K11" t="n">
-        <v>306.5382670837591</v>
+        <v>135.1434745973473</v>
       </c>
       <c r="L11" t="n">
-        <v>590.1577852266764</v>
+        <v>418.7629927402626</v>
       </c>
       <c r="M11" t="n">
-        <v>873.7773033695937</v>
+        <v>418.7629927402626</v>
       </c>
       <c r="N11" t="n">
-        <v>986.0020290261011</v>
+        <v>702.3825108831779</v>
       </c>
       <c r="O11" t="n">
-        <v>986.0020290261011</v>
+        <v>702.3825108831779</v>
       </c>
       <c r="P11" t="n">
-        <v>986.0020290261011</v>
+        <v>986.0020290260932</v>
       </c>
       <c r="Q11" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R11" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S11" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="T11" t="n">
-        <v>1099.702149943557</v>
+        <v>1099.70214994355</v>
       </c>
       <c r="U11" t="n">
-        <v>1090.795070461064</v>
+        <v>1020.280783594008</v>
       </c>
       <c r="V11" t="n">
-        <v>1090.795070461064</v>
+        <v>858.7159682364838</v>
       </c>
       <c r="W11" t="n">
-        <v>1090.795070461064</v>
+        <v>671.5954968406194</v>
       </c>
       <c r="X11" t="n">
-        <v>1090.795070461064</v>
+        <v>671.5954968406194</v>
       </c>
       <c r="Y11" t="n">
-        <v>1090.795070461064</v>
+        <v>671.5954968406194</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.90010480688053</v>
+        <v>161.7573859506296</v>
       </c>
       <c r="C12" t="n">
-        <v>79.90010480688053</v>
+        <v>161.7573859506296</v>
       </c>
       <c r="D12" t="n">
-        <v>79.90010480688053</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="E12" t="n">
-        <v>79.90010480688053</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="F12" t="n">
-        <v>79.90010480688053</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="G12" t="n">
-        <v>79.90010480688053</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="H12" t="n">
-        <v>79.90010480688053</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="I12" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="J12" t="n">
-        <v>22.9187489408418</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="K12" t="n">
-        <v>304.8163121699843</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="L12" t="n">
-        <v>304.8163121699843</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="M12" t="n">
-        <v>304.8163121699843</v>
+        <v>379.4988091503234</v>
       </c>
       <c r="N12" t="n">
-        <v>379.4988091503274</v>
+        <v>663.1183272932387</v>
       </c>
       <c r="O12" t="n">
-        <v>663.1183272932446</v>
+        <v>946.737845436154</v>
       </c>
       <c r="P12" t="n">
-        <v>946.7378454361619</v>
+        <v>946.737845436154</v>
       </c>
       <c r="Q12" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R12" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S12" t="n">
-        <v>999.2886525637371</v>
+        <v>999.2886525637291</v>
       </c>
       <c r="T12" t="n">
-        <v>811.9382562658935</v>
+        <v>811.9382562658856</v>
       </c>
       <c r="U12" t="n">
-        <v>593.4652490797016</v>
+        <v>593.4652490796936</v>
       </c>
       <c r="V12" t="n">
-        <v>536.2398292996629</v>
+        <v>365.0696265280276</v>
       </c>
       <c r="W12" t="n">
-        <v>294.923960532973</v>
+        <v>299.1682165078725</v>
       </c>
       <c r="X12" t="n">
-        <v>272.4214311573017</v>
+        <v>178.8642535545159</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.90010480688053</v>
+        <v>161.7573859506296</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="D13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="E13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="F13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="G13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="H13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="I13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="J13" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084164</v>
       </c>
       <c r="K13" t="n">
-        <v>88.13463834193598</v>
+        <v>88.13463834193583</v>
       </c>
       <c r="L13" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344955</v>
       </c>
       <c r="M13" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074948</v>
       </c>
       <c r="N13" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O13" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P13" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q13" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="R13" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="S13" t="n">
-        <v>749.2387566881711</v>
+        <v>573.8242979416367</v>
       </c>
       <c r="T13" t="n">
-        <v>517.2459668219977</v>
+        <v>517.2459668219983</v>
       </c>
       <c r="U13" t="n">
-        <v>405.4853285680762</v>
+        <v>329.5811527290725</v>
       </c>
       <c r="V13" t="n">
-        <v>244.2603070340333</v>
+        <v>244.26030703403</v>
       </c>
       <c r="W13" t="n">
-        <v>133.5183642979665</v>
+        <v>133.518364297964</v>
       </c>
       <c r="X13" t="n">
-        <v>77.68035893987634</v>
+        <v>77.68035893987464</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.05965887868753</v>
+        <v>31.0596588786866</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>583.5243061449006</v>
+        <v>614.531231426659</v>
       </c>
       <c r="C14" t="n">
-        <v>583.5243061449006</v>
+        <v>614.531231426659</v>
       </c>
       <c r="D14" t="n">
-        <v>583.5243061449006</v>
+        <v>614.531231426659</v>
       </c>
       <c r="E14" t="n">
-        <v>364.1530449975415</v>
+        <v>395.1599702793009</v>
       </c>
       <c r="F14" t="n">
-        <v>364.1530449975415</v>
+        <v>262.9893868660075</v>
       </c>
       <c r="G14" t="n">
-        <v>124.082407072375</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H14" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I14" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J14" t="n">
-        <v>22.9187489408418</v>
+        <v>146.3995003278775</v>
       </c>
       <c r="K14" t="n">
-        <v>306.538267083759</v>
+        <v>430.0190184707926</v>
       </c>
       <c r="L14" t="n">
-        <v>590.1577852266762</v>
+        <v>430.0190184707926</v>
       </c>
       <c r="M14" t="n">
-        <v>590.1577852266762</v>
+        <v>702.3825108831775</v>
       </c>
       <c r="N14" t="n">
-        <v>590.1577852266762</v>
+        <v>702.3825108831775</v>
       </c>
       <c r="O14" t="n">
-        <v>702.3825108831836</v>
+        <v>986.0020290260927</v>
       </c>
       <c r="P14" t="n">
-        <v>986.0020290261009</v>
+        <v>986.0020290260927</v>
       </c>
       <c r="Q14" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R14" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S14" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="T14" t="n">
-        <v>1099.702149943557</v>
+        <v>1099.702149943549</v>
       </c>
       <c r="U14" t="n">
-        <v>1020.280783594014</v>
+        <v>1020.280783594007</v>
       </c>
       <c r="V14" t="n">
-        <v>1020.280783594014</v>
+        <v>1020.280783594007</v>
       </c>
       <c r="W14" t="n">
-        <v>1020.280783594014</v>
+        <v>833.1603121981432</v>
       </c>
       <c r="X14" t="n">
-        <v>1020.280783594014</v>
+        <v>833.1603121981432</v>
       </c>
       <c r="Y14" t="n">
-        <v>802.1533869163857</v>
+        <v>833.1603121981432</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.9187489408418</v>
+        <v>437.1827605949057</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9187489408418</v>
+        <v>437.1827605949057</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9187489408418</v>
+        <v>298.3441235851178</v>
       </c>
       <c r="E15" t="n">
-        <v>22.9187489408418</v>
+        <v>151.316113641989</v>
       </c>
       <c r="F15" t="n">
-        <v>22.9187489408418</v>
+        <v>151.316113641989</v>
       </c>
       <c r="G15" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H15" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I15" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J15" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="K15" t="n">
-        <v>22.9187489408418</v>
+        <v>304.8163121699841</v>
       </c>
       <c r="L15" t="n">
-        <v>22.9187489408418</v>
+        <v>588.4358303128993</v>
       </c>
       <c r="M15" t="n">
-        <v>95.87929100740996</v>
+        <v>588.4358303128993</v>
       </c>
       <c r="N15" t="n">
-        <v>379.4988091503272</v>
+        <v>663.1183272932383</v>
       </c>
       <c r="O15" t="n">
-        <v>663.1183272932444</v>
+        <v>946.7378454361535</v>
       </c>
       <c r="P15" t="n">
-        <v>946.7378454361617</v>
+        <v>946.7378454361535</v>
       </c>
       <c r="Q15" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R15" t="n">
-        <v>1106.712612176252</v>
+        <v>1106.712612176244</v>
       </c>
       <c r="S15" t="n">
-        <v>1106.712612176252</v>
+        <v>960.0638176978912</v>
       </c>
       <c r="T15" t="n">
-        <v>926.1271031714823</v>
+        <v>814.1477385859406</v>
       </c>
       <c r="U15" t="n">
-        <v>883.0685547318244</v>
+        <v>771.0891901462836</v>
       </c>
       <c r="V15" t="n">
-        <v>654.6729321801583</v>
+        <v>542.6935675946175</v>
       </c>
       <c r="W15" t="n">
-        <v>413.3570634134684</v>
+        <v>476.7921575744625</v>
       </c>
       <c r="X15" t="n">
-        <v>215.440075291263</v>
+        <v>454.289628198792</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.9187489408418</v>
+        <v>437.1827605949057</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>274.2373835263753</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="C16" t="n">
-        <v>175.9906421130791</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="D16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="E16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J16" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="K16" t="n">
-        <v>88.13463834193598</v>
+        <v>88.13463834193583</v>
       </c>
       <c r="L16" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344955</v>
       </c>
       <c r="M16" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074948</v>
       </c>
       <c r="N16" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O16" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P16" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q16" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="R16" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="S16" t="n">
-        <v>749.2387566881711</v>
+        <v>673.3345808491663</v>
       </c>
       <c r="T16" t="n">
-        <v>692.6604255685319</v>
+        <v>616.7562497295279</v>
       </c>
       <c r="U16" t="n">
-        <v>580.8997873146103</v>
+        <v>504.9956114756072</v>
       </c>
       <c r="V16" t="n">
-        <v>495.578941619567</v>
+        <v>244.2603070340298</v>
       </c>
       <c r="W16" t="n">
-        <v>384.8369988835001</v>
+        <v>133.5183642979638</v>
       </c>
       <c r="X16" t="n">
-        <v>328.99899352541</v>
+        <v>77.68035893987451</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.3782934642211</v>
+        <v>31.05965887868653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.9776349843718</v>
+        <v>663.9776349843664</v>
       </c>
       <c r="C17" t="n">
-        <v>559.4778618390645</v>
+        <v>559.4778618390601</v>
       </c>
       <c r="D17" t="n">
-        <v>464.0878825881736</v>
+        <v>464.0878825881699</v>
       </c>
       <c r="E17" t="n">
-        <v>346.7361482161657</v>
+        <v>346.736148216163</v>
       </c>
       <c r="F17" t="n">
-        <v>210.0189430482214</v>
+        <v>210.0189430482196</v>
       </c>
       <c r="G17" t="n">
-        <v>71.96783189840623</v>
+        <v>71.96783189840527</v>
       </c>
       <c r="H17" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I17" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J17" t="n">
-        <v>22.9187489408418</v>
+        <v>135.1434745973471</v>
       </c>
       <c r="K17" t="n">
-        <v>22.9187489408418</v>
+        <v>135.1434745973471</v>
       </c>
       <c r="L17" t="n">
-        <v>22.9187489408418</v>
+        <v>418.7629927402623</v>
       </c>
       <c r="M17" t="n">
-        <v>135.1434745973492</v>
+        <v>702.3825108831775</v>
       </c>
       <c r="N17" t="n">
-        <v>418.7629927402664</v>
+        <v>702.3825108831775</v>
       </c>
       <c r="O17" t="n">
-        <v>702.3825108831836</v>
+        <v>702.3825108831775</v>
       </c>
       <c r="P17" t="n">
-        <v>986.0020290261009</v>
+        <v>986.0020290260927</v>
       </c>
       <c r="Q17" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R17" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S17" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="T17" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="U17" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="V17" t="n">
-        <v>1086.392158459917</v>
+        <v>1086.392158459909</v>
       </c>
       <c r="W17" t="n">
-        <v>1001.291213839403</v>
+        <v>1001.291213839397</v>
       </c>
       <c r="X17" t="n">
-        <v>896.6950588827818</v>
+        <v>896.695058882776</v>
       </c>
       <c r="Y17" t="n">
-        <v>780.5871889805053</v>
+        <v>780.5871889804993</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.1828667029295</v>
+        <v>161.7573859506296</v>
       </c>
       <c r="C18" t="n">
-        <v>443.4791939438842</v>
+        <v>161.7573859506296</v>
       </c>
       <c r="D18" t="n">
-        <v>304.6405569340963</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6125469909674</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F18" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G18" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H18" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I18" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J18" t="n">
-        <v>113.8353453427568</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="K18" t="n">
-        <v>395.7329085718993</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="L18" t="n">
-        <v>578.6984107562553</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="M18" t="n">
-        <v>862.3179288991726</v>
+        <v>397.4548634856718</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.93744704209</v>
+        <v>397.4548634856718</v>
       </c>
       <c r="O18" t="n">
-        <v>1145.93744704209</v>
+        <v>663.1183272932383</v>
       </c>
       <c r="P18" t="n">
-        <v>1145.93744704209</v>
+        <v>946.7378454361535</v>
       </c>
       <c r="Q18" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R18" t="n">
-        <v>1145.93744704209</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S18" t="n">
-        <v>1145.93744704209</v>
+        <v>999.2886525637286</v>
       </c>
       <c r="T18" t="n">
-        <v>1145.93744704209</v>
+        <v>999.2886525637286</v>
       </c>
       <c r="U18" t="n">
-        <v>1145.93744704209</v>
+        <v>780.8156453775367</v>
       </c>
       <c r="V18" t="n">
-        <v>957.1236358346115</v>
+        <v>552.4200228258707</v>
       </c>
       <c r="W18" t="n">
-        <v>957.1236358346115</v>
+        <v>552.1957004232562</v>
       </c>
       <c r="X18" t="n">
-        <v>957.1236358346115</v>
+        <v>354.2787123010507</v>
       </c>
       <c r="Y18" t="n">
-        <v>764.6023094841903</v>
+        <v>161.7573859506296</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>764.2325010116648</v>
+        <v>125.2618736509953</v>
       </c>
       <c r="C19" t="n">
-        <v>594.616531473345</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="D19" t="n">
-        <v>441.5446383011077</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="E19" t="n">
-        <v>289.5356240624266</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F19" t="n">
-        <v>137.0549690882037</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G19" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H19" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I19" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J19" t="n">
-        <v>22.9187489408418</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="K19" t="n">
-        <v>88.13463834193598</v>
+        <v>88.13463834193583</v>
       </c>
       <c r="L19" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344955</v>
       </c>
       <c r="M19" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074948</v>
       </c>
       <c r="N19" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O19" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P19" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.6960284509505</v>
+        <v>767.404964388597</v>
       </c>
       <c r="R19" t="n">
-        <v>782.6960284509505</v>
+        <v>767.404964388597</v>
       </c>
       <c r="S19" t="n">
-        <v>782.6960284509505</v>
+        <v>558.5332338792834</v>
       </c>
       <c r="T19" t="n">
-        <v>782.6960284509505</v>
+        <v>558.5332338792834</v>
       </c>
       <c r="U19" t="n">
-        <v>772.9549169723803</v>
+        <v>548.792122400714</v>
       </c>
       <c r="V19" t="n">
-        <v>772.9549169723803</v>
+        <v>548.792122400714</v>
       </c>
       <c r="W19" t="n">
-        <v>764.2325010116648</v>
+        <v>540.0697064399993</v>
       </c>
       <c r="X19" t="n">
-        <v>764.2325010116648</v>
+        <v>308.8172423353751</v>
       </c>
       <c r="Y19" t="n">
-        <v>764.2325010116648</v>
+        <v>308.8172423353751</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>663.9776349843719</v>
+        <v>663.977634984367</v>
       </c>
       <c r="C20" t="n">
-        <v>559.4778618390648</v>
+        <v>559.4778618390606</v>
       </c>
       <c r="D20" t="n">
-        <v>464.0878825881738</v>
+        <v>464.0878825881704</v>
       </c>
       <c r="E20" t="n">
-        <v>346.7361482161661</v>
+        <v>346.7361482161635</v>
       </c>
       <c r="F20" t="n">
-        <v>210.0189430482219</v>
+        <v>210.0189430482201</v>
       </c>
       <c r="G20" t="n">
-        <v>71.96783189840625</v>
+        <v>71.96783189840527</v>
       </c>
       <c r="H20" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I20" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J20" t="n">
-        <v>146.3995003278776</v>
+        <v>135.1434745973471</v>
       </c>
       <c r="K20" t="n">
-        <v>146.3995003278776</v>
+        <v>135.1434745973471</v>
       </c>
       <c r="L20" t="n">
-        <v>418.7629927402668</v>
+        <v>418.7629927402623</v>
       </c>
       <c r="M20" t="n">
-        <v>702.3825108831843</v>
+        <v>418.7629927402623</v>
       </c>
       <c r="N20" t="n">
-        <v>702.3825108831843</v>
+        <v>702.3825108831775</v>
       </c>
       <c r="O20" t="n">
-        <v>702.3825108831843</v>
+        <v>986.0020290260927</v>
       </c>
       <c r="P20" t="n">
-        <v>986.0020290261018</v>
+        <v>986.0020290260927</v>
       </c>
       <c r="Q20" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R20" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S20" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="T20" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="U20" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="V20" t="n">
-        <v>1086.392158459917</v>
+        <v>1086.392158459909</v>
       </c>
       <c r="W20" t="n">
-        <v>1001.291213839404</v>
+        <v>1001.291213839397</v>
       </c>
       <c r="X20" t="n">
-        <v>896.6950588827821</v>
+        <v>896.695058882776</v>
       </c>
       <c r="Y20" t="n">
-        <v>780.5871889805055</v>
+        <v>780.5871889805003</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>605.1828667029295</v>
+        <v>308.7853958937583</v>
       </c>
       <c r="C21" t="n">
-        <v>443.4791939438842</v>
+        <v>308.7853958937583</v>
       </c>
       <c r="D21" t="n">
-        <v>304.6405569340963</v>
+        <v>169.9467588839704</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6125469909675</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F21" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G21" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H21" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I21" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J21" t="n">
-        <v>22.91874894084182</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="K21" t="n">
-        <v>304.8163121699843</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="L21" t="n">
-        <v>304.8163121699843</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="M21" t="n">
-        <v>578.6984107562557</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="N21" t="n">
-        <v>862.3179288991732</v>
+        <v>663.1183272932383</v>
       </c>
       <c r="O21" t="n">
-        <v>1145.937447042091</v>
+        <v>663.1183272932383</v>
       </c>
       <c r="P21" t="n">
-        <v>1145.937447042091</v>
+        <v>946.7378454361535</v>
       </c>
       <c r="Q21" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R21" t="n">
-        <v>1145.937447042091</v>
+        <v>1106.712612176244</v>
       </c>
       <c r="S21" t="n">
-        <v>1145.937447042091</v>
+        <v>960.0638176978912</v>
       </c>
       <c r="T21" t="n">
-        <v>1145.937447042091</v>
+        <v>772.7134214000477</v>
       </c>
       <c r="U21" t="n">
-        <v>1145.937447042091</v>
+        <v>554.2404142138557</v>
       </c>
       <c r="V21" t="n">
-        <v>1145.937447042091</v>
+        <v>554.2404142138557</v>
       </c>
       <c r="W21" t="n">
-        <v>1145.937447042091</v>
+        <v>554.2404142138557</v>
       </c>
       <c r="X21" t="n">
-        <v>957.1236358346115</v>
+        <v>356.3234260916503</v>
       </c>
       <c r="Y21" t="n">
-        <v>764.6023094841903</v>
+        <v>308.7853958937583</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192.5347184791615</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="C22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="D22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="E22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J22" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="K22" t="n">
-        <v>88.13463834193601</v>
+        <v>88.13463834193583</v>
       </c>
       <c r="L22" t="n">
-        <v>229.1938123344957</v>
+        <v>229.1938123344955</v>
       </c>
       <c r="M22" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074948</v>
       </c>
       <c r="N22" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O22" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P22" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="R22" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="S22" t="n">
-        <v>573.8242979416369</v>
+        <v>573.8242979416367</v>
       </c>
       <c r="T22" t="n">
-        <v>573.8242979416369</v>
+        <v>573.8242979416367</v>
       </c>
       <c r="U22" t="n">
-        <v>423.2922932475999</v>
+        <v>286.649200941181</v>
       </c>
       <c r="V22" t="n">
-        <v>423.2922932475999</v>
+        <v>286.649200941181</v>
       </c>
       <c r="W22" t="n">
-        <v>414.5698772868844</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="X22" t="n">
-        <v>414.5698772868844</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.5347184791615</v>
+        <v>22.91874894084163</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>663.9776349843725</v>
+        <v>663.9776349843676</v>
       </c>
       <c r="C23" t="n">
-        <v>559.4778618390651</v>
+        <v>559.477861839061</v>
       </c>
       <c r="D23" t="n">
-        <v>464.0878825881741</v>
+        <v>464.0878825881709</v>
       </c>
       <c r="E23" t="n">
-        <v>346.7361482161664</v>
+        <v>346.7361482161641</v>
       </c>
       <c r="F23" t="n">
-        <v>210.0189430482224</v>
+        <v>210.0189430482206</v>
       </c>
       <c r="G23" t="n">
-        <v>71.96783189840625</v>
+        <v>71.96783189840527</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J23" t="n">
-        <v>22.91874894084182</v>
+        <v>146.3995003278775</v>
       </c>
       <c r="K23" t="n">
-        <v>22.91874894084182</v>
+        <v>146.3995003278775</v>
       </c>
       <c r="L23" t="n">
-        <v>22.91874894084182</v>
+        <v>430.0190184707926</v>
       </c>
       <c r="M23" t="n">
-        <v>135.1434745973494</v>
+        <v>713.6385366137079</v>
       </c>
       <c r="N23" t="n">
-        <v>418.7629927402668</v>
+        <v>713.6385366137079</v>
       </c>
       <c r="O23" t="n">
-        <v>702.3825108831843</v>
+        <v>997.2580547566231</v>
       </c>
       <c r="P23" t="n">
-        <v>986.0020290261018</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="Q23" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R23" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="S23" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="T23" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="U23" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="V23" t="n">
-        <v>1086.392158459917</v>
+        <v>1086.392158459909</v>
       </c>
       <c r="W23" t="n">
-        <v>1001.291213839404</v>
+        <v>1001.291213839397</v>
       </c>
       <c r="X23" t="n">
-        <v>896.6950588827827</v>
+        <v>896.6950588827763</v>
       </c>
       <c r="Y23" t="n">
-        <v>780.5871889805062</v>
+        <v>780.5871889805005</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>515.1362126258394</v>
+        <v>184.6224216998869</v>
       </c>
       <c r="C24" t="n">
-        <v>353.4325398667942</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="D24" t="n">
-        <v>214.5939028570062</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="E24" t="n">
-        <v>214.5939028570062</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F24" t="n">
-        <v>79.90010480688056</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G24" t="n">
-        <v>79.90010480688056</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H24" t="n">
-        <v>79.90010480688056</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I24" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J24" t="n">
-        <v>113.8353453427568</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="K24" t="n">
-        <v>395.7329085718993</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="L24" t="n">
-        <v>679.3524267148168</v>
+        <v>578.6984107562512</v>
       </c>
       <c r="M24" t="n">
-        <v>679.3524267148168</v>
+        <v>578.6984107562512</v>
       </c>
       <c r="N24" t="n">
-        <v>679.3524267148168</v>
+        <v>578.6984107562512</v>
       </c>
       <c r="O24" t="n">
-        <v>946.7378454361626</v>
+        <v>862.3179288991664</v>
       </c>
       <c r="P24" t="n">
-        <v>946.7378454361626</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="Q24" t="n">
-        <v>1145.937447042091</v>
+        <v>1145.937447042082</v>
       </c>
       <c r="R24" t="n">
-        <v>1145.937447042091</v>
+        <v>1106.712612176244</v>
       </c>
       <c r="S24" t="n">
-        <v>999.2886525637377</v>
+        <v>960.0638176978912</v>
       </c>
       <c r="T24" t="n">
-        <v>811.9382562658942</v>
+        <v>842.3282857749742</v>
       </c>
       <c r="U24" t="n">
-        <v>743.5318351775055</v>
+        <v>623.8552785887823</v>
       </c>
       <c r="V24" t="n">
-        <v>515.1362126258394</v>
+        <v>623.8552785887823</v>
       </c>
       <c r="W24" t="n">
-        <v>515.1362126258394</v>
+        <v>382.5394098220924</v>
       </c>
       <c r="X24" t="n">
-        <v>515.1362126258394</v>
+        <v>184.6224216998869</v>
       </c>
       <c r="Y24" t="n">
-        <v>515.1362126258394</v>
+        <v>184.6224216998869</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="C25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="D25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="E25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="F25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="G25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="H25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="I25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="J25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
       <c r="K25" t="n">
-        <v>88.13463834193601</v>
+        <v>88.13463834193583</v>
       </c>
       <c r="L25" t="n">
-        <v>229.1938123344957</v>
+        <v>229.1938123344955</v>
       </c>
       <c r="M25" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074948</v>
       </c>
       <c r="N25" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O25" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P25" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.6960284509505</v>
+        <v>767.404964388597</v>
       </c>
       <c r="R25" t="n">
-        <v>782.6960284509505</v>
+        <v>630.3656591126761</v>
       </c>
       <c r="S25" t="n">
-        <v>782.6960284509505</v>
+        <v>540.8514207097348</v>
       </c>
       <c r="T25" t="n">
-        <v>782.6960284509505</v>
+        <v>540.8514207097348</v>
       </c>
       <c r="U25" t="n">
-        <v>772.9549169723803</v>
+        <v>531.1103092311654</v>
       </c>
       <c r="V25" t="n">
-        <v>762.3627733357898</v>
+        <v>531.1103092311654</v>
       </c>
       <c r="W25" t="n">
-        <v>476.206371853189</v>
+        <v>244.9539077485645</v>
       </c>
       <c r="X25" t="n">
-        <v>244.9539077485647</v>
+        <v>244.9539077485645</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.91874894084182</v>
+        <v>22.91874894084163</v>
       </c>
     </row>
     <row r="26">
@@ -6209,31 +6209,31 @@
         <v>1260.031596684503</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2654035659609</v>
+        <v>967.265403565961</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1337396514825</v>
+        <v>655.1337396514828</v>
       </c>
       <c r="G26" t="n">
-        <v>341.668169755133</v>
+        <v>341.6681697551332</v>
       </c>
       <c r="H26" t="n">
         <v>117.204628051034</v>
       </c>
       <c r="I26" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7367974864094</v>
+        <v>193.7474592938876</v>
       </c>
       <c r="K26" t="n">
-        <v>651.6879571906975</v>
+        <v>611.0356526099622</v>
       </c>
       <c r="L26" t="n">
-        <v>1095.295251354645</v>
+        <v>1154.632284966432</v>
       </c>
       <c r="M26" t="n">
-        <v>1695.032836640285</v>
+        <v>1754.369870252072</v>
       </c>
       <c r="N26" t="n">
         <v>2281.586042640361</v>
@@ -6242,19 +6242,19 @@
         <v>2788.780854554958</v>
       </c>
       <c r="P26" t="n">
-        <v>3204.153183676621</v>
+        <v>3204.15318367662</v>
       </c>
       <c r="Q26" t="n">
         <v>3464.077939885131</v>
       </c>
       <c r="R26" t="n">
-        <v>3513.335395342587</v>
+        <v>3513.335395342586</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.2288997546</v>
+        <v>3442.228899754599</v>
       </c>
       <c r="T26" t="n">
-        <v>3322.598670684884</v>
+        <v>3322.598670684883</v>
       </c>
       <c r="U26" t="n">
         <v>3169.782372364158</v>
@@ -6300,28 +6300,28 @@
         <v>127.2480637728905</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J27" t="n">
-        <v>70.26670790685174</v>
+        <v>161.1833043087667</v>
       </c>
       <c r="K27" t="n">
-        <v>113.1981445974141</v>
+        <v>443.0808675379093</v>
       </c>
       <c r="L27" t="n">
-        <v>549.4876830387512</v>
+        <v>879.3704059792465</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.753510850128</v>
+        <v>1446.636233790623</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.428080178789</v>
+        <v>1513.228478572861</v>
       </c>
       <c r="O27" t="n">
-        <v>2181.845705074321</v>
+        <v>1982.646103468393</v>
       </c>
       <c r="P27" t="n">
-        <v>2545.915615454805</v>
+        <v>2346.716013848877</v>
       </c>
       <c r="Q27" t="n">
         <v>2545.915615454805</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7085780007574</v>
+        <v>444.7085780007571</v>
       </c>
       <c r="C28" t="n">
-        <v>377.112135237789</v>
+        <v>377.1121352377888</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0597688409031</v>
+        <v>326.0597688409028</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0702813775732</v>
+        <v>276.0702813775731</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6091531787017</v>
+        <v>225.6091531787015</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9865440133844</v>
+        <v>158.9865440133843</v>
       </c>
       <c r="H28" t="n">
         <v>104.1016547704534</v>
       </c>
       <c r="I28" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J28" t="n">
         <v>130.6305822251146</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8358098187306</v>
+        <v>295.8358098187307</v>
       </c>
       <c r="L28" t="n">
-        <v>536.884322003812</v>
+        <v>536.8843220038123</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5182282693331</v>
+        <v>797.5182282693333</v>
       </c>
       <c r="N28" t="n">
         <v>1057.566823233602</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.478238074747</v>
+        <v>1294.478238074748</v>
       </c>
       <c r="P28" t="n">
         <v>1490.343890890354</v>
@@ -6406,7 +6406,7 @@
         <v>1575.346457195364</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.326678694795</v>
+        <v>1540.326678694794</v>
       </c>
       <c r="S28" t="n">
         <v>1433.474474960832</v>
@@ -6418,16 +6418,16 @@
         <v>1118.345641644906</v>
       </c>
       <c r="V28" t="n">
-        <v>959.62986397868</v>
+        <v>959.6298639786797</v>
       </c>
       <c r="W28" t="n">
-        <v>775.4929892714304</v>
+        <v>775.49298927143</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2600519421575</v>
+        <v>646.2600519421571</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2444199097858</v>
+        <v>526.2444199097856</v>
       </c>
     </row>
     <row r="29">
@@ -6446,19 +6446,19 @@
         <v>1260.031596684503</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2654035659612</v>
+        <v>967.2654035659613</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1337396514825</v>
+        <v>655.133739651483</v>
       </c>
       <c r="G29" t="n">
-        <v>341.668169755133</v>
+        <v>341.6681697551335</v>
       </c>
       <c r="H29" t="n">
         <v>117.204628051034</v>
       </c>
       <c r="I29" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J29" t="n">
         <v>293.7367974864094</v>
@@ -6470,22 +6470,22 @@
         <v>1254.621623158953</v>
       </c>
       <c r="M29" t="n">
-        <v>1854.359208444594</v>
+        <v>1754.369870252072</v>
       </c>
       <c r="N29" t="n">
-        <v>2440.91241444467</v>
+        <v>2340.923076252148</v>
       </c>
       <c r="O29" t="n">
-        <v>2848.117888166744</v>
+        <v>2848.117888166745</v>
       </c>
       <c r="P29" t="n">
-        <v>3204.153183676621</v>
+        <v>3204.15318367662</v>
       </c>
       <c r="Q29" t="n">
         <v>3464.077939885131</v>
       </c>
       <c r="R29" t="n">
-        <v>3513.335395342587</v>
+        <v>3513.335395342586</v>
       </c>
       <c r="S29" t="n">
         <v>3442.2288997546</v>
@@ -6494,7 +6494,7 @@
         <v>3322.598670684884</v>
       </c>
       <c r="U29" t="n">
-        <v>3169.782372364159</v>
+        <v>3169.782372364158</v>
       </c>
       <c r="V29" t="n">
         <v>2934.822625035451</v>
@@ -6537,19 +6537,19 @@
         <v>127.2480637728905</v>
       </c>
       <c r="I30" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J30" t="n">
-        <v>70.26670790685174</v>
+        <v>161.1833043087667</v>
       </c>
       <c r="K30" t="n">
-        <v>352.1642711359942</v>
+        <v>443.0808675379092</v>
       </c>
       <c r="L30" t="n">
-        <v>788.4538095773314</v>
+        <v>879.3704059792465</v>
       </c>
       <c r="M30" t="n">
-        <v>917.5539092442004</v>
+        <v>1446.636233790623</v>
       </c>
       <c r="N30" t="n">
         <v>1513.228478572861</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7085780007574</v>
+        <v>444.7085780007571</v>
       </c>
       <c r="C31" t="n">
-        <v>377.112135237789</v>
+        <v>377.1121352377888</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0597688409031</v>
+        <v>326.0597688409028</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0702813775732</v>
+        <v>276.0702813775731</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6091531787017</v>
+        <v>225.6091531787015</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9865440133844</v>
+        <v>158.9865440133843</v>
       </c>
       <c r="H31" t="n">
         <v>104.1016547704534</v>
       </c>
       <c r="I31" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J31" t="n">
         <v>130.6305822251146</v>
       </c>
       <c r="K31" t="n">
-        <v>295.8358098187314</v>
+        <v>295.8358098187306</v>
       </c>
       <c r="L31" t="n">
-        <v>536.8843220038129</v>
+        <v>536.8843220038121</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5182282693339</v>
+        <v>797.5182282693332</v>
       </c>
       <c r="N31" t="n">
-        <v>1057.566823233603</v>
+        <v>1057.566823233602</v>
       </c>
       <c r="O31" t="n">
         <v>1294.478238074748</v>
       </c>
       <c r="P31" t="n">
-        <v>1490.343890890355</v>
+        <v>1490.343890890354</v>
       </c>
       <c r="Q31" t="n">
         <v>1575.346457195364</v>
       </c>
       <c r="R31" t="n">
-        <v>1540.326678694795</v>
+        <v>1540.326678694794</v>
       </c>
       <c r="S31" t="n">
         <v>1433.474474960832</v>
@@ -6655,16 +6655,16 @@
         <v>1118.345641644906</v>
       </c>
       <c r="V31" t="n">
-        <v>959.62986397868</v>
+        <v>959.6298639786795</v>
       </c>
       <c r="W31" t="n">
-        <v>775.4929892714304</v>
+        <v>775.49298927143</v>
       </c>
       <c r="X31" t="n">
-        <v>646.2600519421575</v>
+        <v>646.2600519421571</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2444199097858</v>
+        <v>526.2444199097856</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1810.750266573769</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.836034681927</v>
+        <v>1530.836034681928</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.031596684502</v>
+        <v>1260.031596684503</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2654035659602</v>
+        <v>967.2654035659607</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1337396514821</v>
+        <v>655.1337396514824</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6681697551325</v>
+        <v>341.6681697551326</v>
       </c>
       <c r="H32" t="n">
         <v>117.204628051034</v>
       </c>
       <c r="I32" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J32" t="n">
-        <v>234.3997638746226</v>
+        <v>293.7367974864093</v>
       </c>
       <c r="K32" t="n">
-        <v>551.6986189981753</v>
+        <v>711.0249908024839</v>
       </c>
       <c r="L32" t="n">
-        <v>1095.295251354645</v>
+        <v>1254.621623158953</v>
       </c>
       <c r="M32" t="n">
-        <v>1695.032836640285</v>
+        <v>1754.369870252072</v>
       </c>
       <c r="N32" t="n">
-        <v>2281.586042640361</v>
+        <v>2340.923076252148</v>
       </c>
       <c r="O32" t="n">
         <v>2788.780854554958</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.153183676621</v>
+        <v>3204.15318367662</v>
       </c>
       <c r="Q32" t="n">
         <v>3464.077939885131</v>
       </c>
       <c r="R32" t="n">
-        <v>3513.335395342587</v>
+        <v>3513.335395342586</v>
       </c>
       <c r="S32" t="n">
         <v>3442.2288997546</v>
@@ -6731,7 +6731,7 @@
         <v>3322.598670684884</v>
       </c>
       <c r="U32" t="n">
-        <v>3169.782372364157</v>
+        <v>3169.782372364158</v>
       </c>
       <c r="V32" t="n">
         <v>2934.82262503545</v>
@@ -6774,10 +6774,10 @@
         <v>127.2480637728905</v>
       </c>
       <c r="I33" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J33" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="K33" t="n">
         <v>352.1642711359942</v>
@@ -6786,7 +6786,7 @@
         <v>788.4538095773314</v>
       </c>
       <c r="M33" t="n">
-        <v>917.5539092442004</v>
+        <v>1355.719637388709</v>
       </c>
       <c r="N33" t="n">
         <v>1513.228478572861</v>
@@ -6835,58 +6835,58 @@
         <v>444.7085780007575</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1121352377892</v>
+        <v>377.1121352377891</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0597688409032</v>
+        <v>326.0597688409031</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0702813775735</v>
+        <v>276.0702813775733</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6091531787019</v>
+        <v>225.6091531787017</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9865440133847</v>
+        <v>158.9865440133844</v>
       </c>
       <c r="H34" t="n">
         <v>104.1016547704534</v>
       </c>
       <c r="I34" t="n">
-        <v>70.26670790685174</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="J34" t="n">
         <v>130.6305822251145</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8358098187307</v>
+        <v>295.8358098187305</v>
       </c>
       <c r="L34" t="n">
-        <v>536.8843220038123</v>
+        <v>536.884322003812</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5182282693332</v>
+        <v>797.5182282693331</v>
       </c>
       <c r="N34" t="n">
         <v>1057.566823233602</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.478238074748</v>
+        <v>1294.478238074749</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.343890890354</v>
+        <v>1490.343890890355</v>
       </c>
       <c r="Q34" t="n">
         <v>1575.346457195364</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.326678694794</v>
+        <v>1540.326678694795</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.474474960832</v>
+        <v>1433.474474960833</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.50121187001</v>
+        <v>1303.501211870011</v>
       </c>
       <c r="U34" t="n">
         <v>1118.345641644906</v>
@@ -6895,10 +6895,10 @@
         <v>959.6298639786802</v>
       </c>
       <c r="W34" t="n">
-        <v>775.4929892714307</v>
+        <v>775.4929892714306</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2600519421576</v>
+        <v>646.2600519421577</v>
       </c>
       <c r="Y34" t="n">
         <v>526.2444199097861</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.059313318401</v>
+        <v>1277.059313318403</v>
       </c>
       <c r="C35" t="n">
-        <v>1074.450795454951</v>
+        <v>1074.450795454952</v>
       </c>
       <c r="D35" t="n">
-        <v>880.9520714859161</v>
+        <v>880.9520714859175</v>
       </c>
       <c r="E35" t="n">
-        <v>665.491592395765</v>
+        <v>665.4915923957658</v>
       </c>
       <c r="F35" t="n">
-        <v>430.6656425096774</v>
+        <v>430.6656425096776</v>
       </c>
       <c r="G35" t="n">
-        <v>194.5057866417178</v>
+        <v>194.5057866417185</v>
       </c>
       <c r="H35" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="I35" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="J35" t="n">
-        <v>47.34795896600994</v>
+        <v>170.8287103530459</v>
       </c>
       <c r="K35" t="n">
-        <v>364.6468140895627</v>
+        <v>488.1275654765986</v>
       </c>
       <c r="L35" t="n">
-        <v>808.2541082535101</v>
+        <v>931.7348596405461</v>
       </c>
       <c r="M35" t="n">
-        <v>1308.002355346629</v>
+        <v>1431.483106733665</v>
       </c>
       <c r="N35" t="n">
-        <v>1794.566223154183</v>
+        <v>1918.046974541219</v>
       </c>
       <c r="O35" t="n">
-        <v>2201.771696876258</v>
+        <v>2052.014957371363</v>
       </c>
       <c r="P35" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="Q35" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="R35" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="S35" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="T35" t="n">
-        <v>2325.073433259171</v>
+        <v>2325.073433259177</v>
       </c>
       <c r="U35" t="n">
-        <v>2249.562848966837</v>
+        <v>2249.562848966842</v>
       </c>
       <c r="V35" t="n">
-        <v>2091.90881566652</v>
+        <v>2091.908815666524</v>
       </c>
       <c r="W35" t="n">
-        <v>1908.699126327863</v>
+        <v>1908.699126327867</v>
       </c>
       <c r="X35" t="n">
-        <v>1705.994226653098</v>
+        <v>1705.994226653101</v>
       </c>
       <c r="Y35" t="n">
-        <v>1491.777612032678</v>
+        <v>1491.777612032681</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>814.9907972952836</v>
+        <v>756.1316669000339</v>
       </c>
       <c r="C36" t="n">
-        <v>653.2871245362384</v>
+        <v>594.4279941409886</v>
       </c>
       <c r="D36" t="n">
-        <v>514.4484875264504</v>
+        <v>455.5893571312007</v>
       </c>
       <c r="E36" t="n">
-        <v>367.4204775833217</v>
+        <v>455.5893571312007</v>
       </c>
       <c r="F36" t="n">
-        <v>232.7266795331961</v>
+        <v>320.895559081075</v>
       </c>
       <c r="G36" t="n">
-        <v>104.3293148320487</v>
+        <v>192.4981943799276</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3293148320487</v>
+        <v>95.75840656171719</v>
       </c>
       <c r="I36" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="J36" t="n">
-        <v>47.34795896600994</v>
+        <v>138.2645553679251</v>
       </c>
       <c r="K36" t="n">
-        <v>329.2455221951525</v>
+        <v>420.1621185970676</v>
       </c>
       <c r="L36" t="n">
-        <v>765.5350606364897</v>
+        <v>856.4516570384048</v>
       </c>
       <c r="M36" t="n">
-        <v>765.5350606364897</v>
+        <v>1312.049331200596</v>
       </c>
       <c r="N36" t="n">
-        <v>1334.710811418553</v>
+        <v>1897.98032340497</v>
       </c>
       <c r="O36" t="n">
-        <v>1804.128436314085</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="P36" t="n">
-        <v>2168.198346694568</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="Q36" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300503</v>
       </c>
       <c r="R36" t="n">
-        <v>2328.17311343466</v>
+        <v>2328.173113434666</v>
       </c>
       <c r="S36" t="n">
-        <v>2181.524318956307</v>
+        <v>2181.524318956313</v>
       </c>
       <c r="T36" t="n">
-        <v>1994.173922658463</v>
+        <v>1994.173922658469</v>
       </c>
       <c r="U36" t="n">
-        <v>1834.560045867527</v>
+        <v>1775.700915472277</v>
       </c>
       <c r="V36" t="n">
-        <v>1606.164423315861</v>
+        <v>1547.305292920611</v>
       </c>
       <c r="W36" t="n">
-        <v>1364.848554549171</v>
+        <v>1305.989424153921</v>
       </c>
       <c r="X36" t="n">
-        <v>1166.931566426966</v>
+        <v>1108.072436031716</v>
       </c>
       <c r="Y36" t="n">
-        <v>974.4102400765446</v>
+        <v>915.5511096812949</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="C37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="D37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="E37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="F37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="G37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="H37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="I37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601007</v>
       </c>
       <c r="K37" t="n">
-        <v>112.5638483671041</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L37" t="n">
-        <v>253.6230223596638</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M37" t="n">
-        <v>414.267590432663</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N37" t="n">
-        <v>574.3268472044102</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O37" t="n">
-        <v>711.2489238530339</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P37" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q37" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="R37" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="S37" t="n">
-        <v>777.578748770547</v>
+        <v>777.5787487705466</v>
       </c>
       <c r="T37" t="n">
-        <v>724.9111997081156</v>
+        <v>621.6315494686639</v>
       </c>
       <c r="U37" t="n">
-        <v>617.0613435114019</v>
+        <v>513.7816932719496</v>
       </c>
       <c r="V37" t="n">
-        <v>535.6512798735665</v>
+        <v>432.3716296341137</v>
       </c>
       <c r="W37" t="n">
-        <v>428.8201191947076</v>
+        <v>325.5404689552542</v>
       </c>
       <c r="X37" t="n">
-        <v>376.8928958938254</v>
+        <v>273.6132456543714</v>
       </c>
       <c r="Y37" t="n">
-        <v>230.9033276503898</v>
+        <v>51.57808684664848</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.059313318401</v>
+        <v>1277.059313318404</v>
       </c>
       <c r="C38" t="n">
-        <v>1074.45079545495</v>
+        <v>1074.450795454953</v>
       </c>
       <c r="D38" t="n">
-        <v>880.9520714859157</v>
+        <v>880.9520714859176</v>
       </c>
       <c r="E38" t="n">
-        <v>665.4915923957645</v>
+        <v>665.4915923957659</v>
       </c>
       <c r="F38" t="n">
-        <v>430.6656425096769</v>
+        <v>430.6656425096777</v>
       </c>
       <c r="G38" t="n">
-        <v>194.5057866417178</v>
+        <v>194.5057866417185</v>
       </c>
       <c r="H38" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I38" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J38" t="n">
-        <v>170.8287103530458</v>
+        <v>170.8287103530459</v>
       </c>
       <c r="K38" t="n">
-        <v>488.1275654765985</v>
+        <v>488.1275654765986</v>
       </c>
       <c r="L38" t="n">
-        <v>931.7348596405459</v>
+        <v>931.7348596405461</v>
       </c>
       <c r="M38" t="n">
-        <v>1431.483106733665</v>
+        <v>998.3101978257459</v>
       </c>
       <c r="N38" t="n">
-        <v>1918.046974541219</v>
+        <v>1484.8740656333</v>
       </c>
       <c r="O38" t="n">
-        <v>2325.252448263293</v>
+        <v>1892.079539355375</v>
       </c>
       <c r="P38" t="n">
-        <v>2367.397948300497</v>
+        <v>2207.462530284515</v>
       </c>
       <c r="Q38" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="R38" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="S38" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="T38" t="n">
-        <v>2325.073433259171</v>
+        <v>2325.073433259178</v>
       </c>
       <c r="U38" t="n">
-        <v>2249.562848966837</v>
+        <v>2249.562848966842</v>
       </c>
       <c r="V38" t="n">
-        <v>2091.90881566652</v>
+        <v>2091.908815666525</v>
       </c>
       <c r="W38" t="n">
-        <v>1908.699126327863</v>
+        <v>1908.699126327868</v>
       </c>
       <c r="X38" t="n">
-        <v>1705.994226653098</v>
+        <v>1705.994226653102</v>
       </c>
       <c r="Y38" t="n">
-        <v>1491.777612032678</v>
+        <v>1491.777612032682</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>854.7492292474554</v>
+        <v>756.1316669000348</v>
       </c>
       <c r="C39" t="n">
-        <v>693.0455564884102</v>
+        <v>596.3057686701998</v>
       </c>
       <c r="D39" t="n">
-        <v>554.2069194786222</v>
+        <v>457.4671316604119</v>
       </c>
       <c r="E39" t="n">
-        <v>407.1789095354934</v>
+        <v>310.4391217172831</v>
       </c>
       <c r="F39" t="n">
-        <v>272.4851114853677</v>
+        <v>175.7453236671575</v>
       </c>
       <c r="G39" t="n">
-        <v>144.0877467842204</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="H39" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I39" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J39" t="n">
-        <v>47.34795896600994</v>
+        <v>138.2645553679251</v>
       </c>
       <c r="K39" t="n">
-        <v>47.34795896600994</v>
+        <v>420.1621185970676</v>
       </c>
       <c r="L39" t="n">
-        <v>483.6374974073472</v>
+        <v>650.9316162983406</v>
       </c>
       <c r="M39" t="n">
-        <v>1050.903325218724</v>
+        <v>1218.197444109718</v>
       </c>
       <c r="N39" t="n">
-        <v>1636.834317423097</v>
+        <v>1804.128436314092</v>
       </c>
       <c r="O39" t="n">
-        <v>2106.25194231863</v>
+        <v>1804.128436314092</v>
       </c>
       <c r="P39" t="n">
-        <v>2367.397948300497</v>
+        <v>2168.198346694576</v>
       </c>
       <c r="Q39" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="R39" t="n">
-        <v>2367.397948300497</v>
+        <v>2328.173113434667</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.141881303734</v>
+        <v>2181.524318956314</v>
       </c>
       <c r="T39" t="n">
-        <v>2092.791485005891</v>
+        <v>1994.17392265847</v>
       </c>
       <c r="U39" t="n">
-        <v>1874.318477819699</v>
+        <v>1775.700915472278</v>
       </c>
       <c r="V39" t="n">
-        <v>1645.922855268033</v>
+        <v>1547.305292920612</v>
       </c>
       <c r="W39" t="n">
-        <v>1404.606986501343</v>
+        <v>1305.989424153922</v>
       </c>
       <c r="X39" t="n">
-        <v>1206.689998379137</v>
+        <v>1108.072436031717</v>
       </c>
       <c r="Y39" t="n">
-        <v>1014.168672028716</v>
+        <v>915.5511096812958</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.34795896600994</v>
+        <v>135.3365451431075</v>
       </c>
       <c r="C40" t="n">
-        <v>47.34795896600994</v>
+        <v>135.3365451431075</v>
       </c>
       <c r="D40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="E40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="F40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="G40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="H40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J40" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="K40" t="n">
-        <v>112.5638483671041</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L40" t="n">
-        <v>253.6230223596638</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M40" t="n">
-        <v>414.267590432663</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N40" t="n">
-        <v>574.3268472044102</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O40" t="n">
-        <v>711.2489238530339</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P40" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q40" t="n">
-        <v>807.1252384761186</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="R40" t="n">
-        <v>807.1252384761186</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="S40" t="n">
-        <v>598.253507966805</v>
+        <v>762.2876847081933</v>
       </c>
       <c r="T40" t="n">
-        <v>442.306308664919</v>
+        <v>530.29489484202</v>
       </c>
       <c r="U40" t="n">
-        <v>334.4564524682053</v>
+        <v>422.4450386453057</v>
       </c>
       <c r="V40" t="n">
-        <v>253.0463888303699</v>
+        <v>341.0349750074697</v>
       </c>
       <c r="W40" t="n">
-        <v>146.215228151511</v>
+        <v>234.2038143286102</v>
       </c>
       <c r="X40" t="n">
-        <v>94.28800485062871</v>
+        <v>182.2765910277274</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.57808684664778</v>
+        <v>139.5666730237459</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.059313318401</v>
+        <v>1277.059313318404</v>
       </c>
       <c r="C41" t="n">
-        <v>1074.45079545495</v>
+        <v>1074.450795454953</v>
       </c>
       <c r="D41" t="n">
-        <v>880.9520714859159</v>
+        <v>880.9520714859178</v>
       </c>
       <c r="E41" t="n">
-        <v>665.4915923957649</v>
+        <v>665.4915923957661</v>
       </c>
       <c r="F41" t="n">
-        <v>430.6656425096771</v>
+        <v>430.6656425096779</v>
       </c>
       <c r="G41" t="n">
-        <v>194.5057866417178</v>
+        <v>194.5057866417185</v>
       </c>
       <c r="H41" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I41" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J41" t="n">
-        <v>170.8287103530458</v>
+        <v>170.8287103530459</v>
       </c>
       <c r="K41" t="n">
-        <v>488.1275654765985</v>
+        <v>488.1275654765986</v>
       </c>
       <c r="L41" t="n">
-        <v>931.7348596405459</v>
+        <v>658.4973687486163</v>
       </c>
       <c r="M41" t="n">
-        <v>1431.483106733665</v>
+        <v>1158.245615841735</v>
       </c>
       <c r="N41" t="n">
-        <v>1918.046974541219</v>
+        <v>1644.809483649289</v>
       </c>
       <c r="O41" t="n">
-        <v>2325.252448263293</v>
+        <v>2052.014957371364</v>
       </c>
       <c r="P41" t="n">
-        <v>2325.252448263293</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="R41" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="S41" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="T41" t="n">
-        <v>2325.073433259172</v>
+        <v>2325.073433259178</v>
       </c>
       <c r="U41" t="n">
-        <v>2249.562848966837</v>
+        <v>2249.562848966842</v>
       </c>
       <c r="V41" t="n">
-        <v>2091.90881566652</v>
+        <v>2091.908815666525</v>
       </c>
       <c r="W41" t="n">
-        <v>1908.699126327863</v>
+        <v>1908.699126327868</v>
       </c>
       <c r="X41" t="n">
-        <v>1705.994226653098</v>
+        <v>1705.994226653102</v>
       </c>
       <c r="Y41" t="n">
-        <v>1491.777612032678</v>
+        <v>1491.777612032682</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>814.9907972952836</v>
+        <v>756.1316669000348</v>
       </c>
       <c r="C42" t="n">
-        <v>653.2871245362384</v>
+        <v>594.4279941409895</v>
       </c>
       <c r="D42" t="n">
-        <v>514.4484875264504</v>
+        <v>455.5893571312016</v>
       </c>
       <c r="E42" t="n">
-        <v>367.4204775833217</v>
+        <v>308.5613471880728</v>
       </c>
       <c r="F42" t="n">
-        <v>232.7266795331961</v>
+        <v>173.8675491379472</v>
       </c>
       <c r="G42" t="n">
-        <v>104.3293148320487</v>
+        <v>104.3293148320488</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3293148320487</v>
+        <v>104.3293148320488</v>
       </c>
       <c r="I42" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J42" t="n">
-        <v>47.34795896600994</v>
+        <v>138.2645553679251</v>
       </c>
       <c r="K42" t="n">
-        <v>47.34795896600994</v>
+        <v>420.1621185970676</v>
       </c>
       <c r="L42" t="n">
-        <v>380.7135930087309</v>
+        <v>650.9316162983406</v>
       </c>
       <c r="M42" t="n">
-        <v>947.979420820108</v>
+        <v>1218.197444109718</v>
       </c>
       <c r="N42" t="n">
-        <v>1533.910413024481</v>
+        <v>1804.128436314092</v>
       </c>
       <c r="O42" t="n">
-        <v>2003.328037920013</v>
+        <v>1804.128436314092</v>
       </c>
       <c r="P42" t="n">
-        <v>2367.397948300497</v>
+        <v>2168.198346694576</v>
       </c>
       <c r="Q42" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="R42" t="n">
-        <v>2367.397948300497</v>
+        <v>2328.173113434667</v>
       </c>
       <c r="S42" t="n">
-        <v>2240.383449351562</v>
+        <v>2181.524318956314</v>
       </c>
       <c r="T42" t="n">
-        <v>2053.033053053719</v>
+        <v>1994.17392265847</v>
       </c>
       <c r="U42" t="n">
-        <v>1834.560045867527</v>
+        <v>1775.700915472278</v>
       </c>
       <c r="V42" t="n">
-        <v>1606.164423315861</v>
+        <v>1547.305292920612</v>
       </c>
       <c r="W42" t="n">
-        <v>1364.848554549171</v>
+        <v>1305.989424153922</v>
       </c>
       <c r="X42" t="n">
-        <v>1166.931566426966</v>
+        <v>1108.072436031717</v>
       </c>
       <c r="Y42" t="n">
-        <v>974.4102400765446</v>
+        <v>915.5511096812958</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="C43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="D43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="E43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="F43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="G43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="H43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J43" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="K43" t="n">
-        <v>112.5638483671041</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L43" t="n">
-        <v>253.6230223596638</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M43" t="n">
-        <v>414.267590432663</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N43" t="n">
-        <v>574.3268472044102</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O43" t="n">
-        <v>711.2489238530339</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P43" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q43" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="R43" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="S43" t="n">
-        <v>777.578748770547</v>
+        <v>598.2535079668052</v>
       </c>
       <c r="T43" t="n">
-        <v>545.5859589043737</v>
+        <v>442.3063086649225</v>
       </c>
       <c r="U43" t="n">
-        <v>437.73610270766</v>
+        <v>334.4564524682083</v>
       </c>
       <c r="V43" t="n">
-        <v>356.3260390698246</v>
+        <v>253.0463888303723</v>
       </c>
       <c r="W43" t="n">
-        <v>146.215228151511</v>
+        <v>146.2152281515128</v>
       </c>
       <c r="X43" t="n">
-        <v>94.28800485062871</v>
+        <v>94.28800485062999</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.57808684664778</v>
+        <v>51.5780868466485</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1277.059313318402</v>
+        <v>1277.059313318405</v>
       </c>
       <c r="C44" t="n">
-        <v>1074.450795454951</v>
+        <v>1074.450795454953</v>
       </c>
       <c r="D44" t="n">
-        <v>880.9520714859168</v>
+        <v>880.9520714859182</v>
       </c>
       <c r="E44" t="n">
-        <v>665.4915923957655</v>
+        <v>665.4915923957661</v>
       </c>
       <c r="F44" t="n">
         <v>430.6656425096778</v>
       </c>
       <c r="G44" t="n">
-        <v>194.5057866417178</v>
+        <v>194.5057866417186</v>
       </c>
       <c r="H44" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I44" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J44" t="n">
-        <v>47.34795896600994</v>
+        <v>170.8287103530459</v>
       </c>
       <c r="K44" t="n">
-        <v>364.6468140895627</v>
+        <v>488.1275654765986</v>
       </c>
       <c r="L44" t="n">
-        <v>808.2541082535101</v>
+        <v>931.7348596405461</v>
       </c>
       <c r="M44" t="n">
-        <v>1308.002355346629</v>
+        <v>1431.483106733665</v>
       </c>
       <c r="N44" t="n">
-        <v>1794.566223154183</v>
+        <v>1484.8740656333</v>
       </c>
       <c r="O44" t="n">
-        <v>2201.771696876258</v>
+        <v>1892.079539355375</v>
       </c>
       <c r="P44" t="n">
-        <v>2367.397948300497</v>
+        <v>2207.462530284515</v>
       </c>
       <c r="Q44" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="R44" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="S44" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="T44" t="n">
-        <v>2325.073433259171</v>
+        <v>2325.073433259178</v>
       </c>
       <c r="U44" t="n">
-        <v>2249.562848966837</v>
+        <v>2249.562848966843</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.90881566652</v>
+        <v>2091.908815666526</v>
       </c>
       <c r="W44" t="n">
-        <v>1908.699126327863</v>
+        <v>1908.699126327868</v>
       </c>
       <c r="X44" t="n">
-        <v>1705.994226653099</v>
+        <v>1705.994226653103</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.777612032679</v>
+        <v>1491.777612032682</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.7305851134942</v>
+        <v>756.1316669000348</v>
       </c>
       <c r="C45" t="n">
-        <v>750.0269123544489</v>
+        <v>594.4279941409895</v>
       </c>
       <c r="D45" t="n">
-        <v>611.188275344661</v>
+        <v>455.5893571312016</v>
       </c>
       <c r="E45" t="n">
-        <v>464.1602654015322</v>
+        <v>308.5613471880728</v>
       </c>
       <c r="F45" t="n">
-        <v>329.4664673514065</v>
+        <v>173.8675491379472</v>
       </c>
       <c r="G45" t="n">
-        <v>201.0691026502591</v>
+        <v>144.0877467842205</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3293148320487</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I45" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J45" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="K45" t="n">
-        <v>329.2455221951525</v>
+        <v>329.2455221951526</v>
       </c>
       <c r="L45" t="n">
-        <v>765.5350606364897</v>
+        <v>329.2455221951526</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.800888447867</v>
+        <v>896.5113500065297</v>
       </c>
       <c r="N45" t="n">
-        <v>1334.710811418553</v>
+        <v>1482.442342210904</v>
       </c>
       <c r="O45" t="n">
-        <v>1804.128436314085</v>
+        <v>1804.128436314092</v>
       </c>
       <c r="P45" t="n">
-        <v>2168.198346694568</v>
+        <v>2168.198346694576</v>
       </c>
       <c r="Q45" t="n">
-        <v>2367.397948300497</v>
+        <v>2367.397948300504</v>
       </c>
       <c r="R45" t="n">
-        <v>2367.397948300497</v>
+        <v>2328.173113434667</v>
       </c>
       <c r="S45" t="n">
-        <v>2220.749153822144</v>
+        <v>2181.524318956314</v>
       </c>
       <c r="T45" t="n">
-        <v>2033.3987575243</v>
+        <v>1994.17392265847</v>
       </c>
       <c r="U45" t="n">
-        <v>1931.299833685737</v>
+        <v>1775.700915472278</v>
       </c>
       <c r="V45" t="n">
-        <v>1702.904211134071</v>
+        <v>1547.305292920612</v>
       </c>
       <c r="W45" t="n">
-        <v>1461.588342367382</v>
+        <v>1305.989424153922</v>
       </c>
       <c r="X45" t="n">
-        <v>1263.671354245176</v>
+        <v>1108.072436031717</v>
       </c>
       <c r="Y45" t="n">
-        <v>1071.150027894755</v>
+        <v>915.5511096812958</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="C46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="D46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="E46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="F46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="G46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="H46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="I46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="J46" t="n">
-        <v>47.34795896600994</v>
+        <v>47.34795896601008</v>
       </c>
       <c r="K46" t="n">
-        <v>112.5638483671041</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L46" t="n">
-        <v>253.6230223596638</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M46" t="n">
-        <v>414.267590432663</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N46" t="n">
-        <v>574.3268472044102</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O46" t="n">
-        <v>711.2489238530339</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P46" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q46" t="n">
-        <v>807.1252384761186</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="R46" t="n">
-        <v>807.1252384761186</v>
+        <v>670.0859332001978</v>
       </c>
       <c r="S46" t="n">
-        <v>598.253507966805</v>
+        <v>640.5394434946256</v>
       </c>
       <c r="T46" t="n">
-        <v>545.5859589043738</v>
+        <v>587.8718944321937</v>
       </c>
       <c r="U46" t="n">
-        <v>437.7361027076602</v>
+        <v>334.4564524682086</v>
       </c>
       <c r="V46" t="n">
-        <v>253.0463888303698</v>
+        <v>253.0463888303725</v>
       </c>
       <c r="W46" t="n">
-        <v>146.2152281515109</v>
+        <v>146.215228151513</v>
       </c>
       <c r="X46" t="n">
-        <v>94.28800485062865</v>
+        <v>94.2880048506301</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.57808684664775</v>
+        <v>51.57808684664855</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>95.09756801961933</v>
       </c>
       <c r="K11" t="n">
-        <v>387.369504038842</v>
+        <v>214.2434510222646</v>
       </c>
       <c r="L11" t="n">
-        <v>381.3557647529288</v>
+        <v>381.3557647529269</v>
       </c>
       <c r="M11" t="n">
-        <v>366.0557461162363</v>
+        <v>79.5713843557138</v>
       </c>
       <c r="N11" t="n">
-        <v>190.4306561284616</v>
+        <v>363.5567091450352</v>
       </c>
       <c r="O11" t="n">
         <v>83.7215753162409</v>
       </c>
       <c r="P11" t="n">
-        <v>99.76964291672492</v>
+        <v>386.2540046772455</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,25 +8766,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358194</v>
       </c>
       <c r="L12" t="n">
         <v>41.39594541839878</v>
       </c>
       <c r="M12" t="n">
-        <v>32.42079720694221</v>
+        <v>300.7677303458986</v>
       </c>
       <c r="N12" t="n">
-        <v>96.89046811296583</v>
+        <v>307.9379642367762</v>
       </c>
       <c r="O12" t="n">
-        <v>324.3461597540763</v>
+        <v>324.3461597540743</v>
       </c>
       <c r="P12" t="n">
-        <v>332.7385767697302</v>
+        <v>46.25421500920774</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.09756801961933</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>387.3695040388419</v>
+        <v>387.3695040388399</v>
       </c>
       <c r="L14" t="n">
-        <v>381.3557647529288</v>
+        <v>94.87140299240633</v>
       </c>
       <c r="M14" t="n">
-        <v>79.5713843557138</v>
+        <v>354.6860231561026</v>
       </c>
       <c r="N14" t="n">
         <v>77.07234738451469</v>
       </c>
       <c r="O14" t="n">
-        <v>197.0798840601878</v>
+        <v>370.2059370767613</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2540046772474</v>
+        <v>99.76964291672492</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9006,22 +9006,22 @@
         <v>72.08340008201128</v>
       </c>
       <c r="K15" t="n">
-        <v>59.05979475358194</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>41.39594541839878</v>
+        <v>327.8803071789192</v>
       </c>
       <c r="M15" t="n">
-        <v>106.1183144459</v>
+        <v>32.42079720694221</v>
       </c>
       <c r="N15" t="n">
-        <v>307.9379642367782</v>
+        <v>96.89046811296176</v>
       </c>
       <c r="O15" t="n">
-        <v>324.3461597540763</v>
+        <v>324.3461597540742</v>
       </c>
       <c r="P15" t="n">
-        <v>332.7385767697302</v>
+        <v>46.25421500920774</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.09756801961933</v>
+        <v>208.4558767635642</v>
       </c>
       <c r="K17" t="n">
         <v>100.8851422783194</v>
       </c>
       <c r="L17" t="n">
-        <v>94.87140299240633</v>
+        <v>381.3557647529267</v>
       </c>
       <c r="M17" t="n">
-        <v>192.9296930996607</v>
+        <v>366.0557461162342</v>
       </c>
       <c r="N17" t="n">
-        <v>363.5567091450371</v>
+        <v>77.07234738451469</v>
       </c>
       <c r="O17" t="n">
-        <v>370.2059370767633</v>
+        <v>83.7215753162409</v>
       </c>
       <c r="P17" t="n">
-        <v>386.2540046772474</v>
+        <v>386.2540046772453</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9243,25 +9243,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358194</v>
       </c>
       <c r="L18" t="n">
-        <v>226.2095839884553</v>
+        <v>41.39594541839878</v>
       </c>
       <c r="M18" t="n">
-        <v>318.9051589674647</v>
+        <v>318.9051589674626</v>
       </c>
       <c r="N18" t="n">
-        <v>307.9379642367782</v>
+        <v>21.45360247625568</v>
       </c>
       <c r="O18" t="n">
-        <v>37.86179799355379</v>
+        <v>306.2087311325099</v>
       </c>
       <c r="P18" t="n">
-        <v>46.25421500920774</v>
+        <v>332.7385767697281</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.88875526273702</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>208.4558767635642</v>
       </c>
       <c r="K20" t="n">
         <v>100.8851422783194</v>
       </c>
       <c r="L20" t="n">
-        <v>369.9860417927994</v>
+        <v>381.3557647529267</v>
       </c>
       <c r="M20" t="n">
-        <v>366.0557461162365</v>
+        <v>79.5713843557138</v>
       </c>
       <c r="N20" t="n">
-        <v>77.07234738451469</v>
+        <v>363.5567091450351</v>
       </c>
       <c r="O20" t="n">
-        <v>83.7215753162409</v>
+        <v>370.2059370767613</v>
       </c>
       <c r="P20" t="n">
-        <v>386.2540046772476</v>
+        <v>99.76964291672492</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,19 +9486,19 @@
         <v>41.39594541839878</v>
       </c>
       <c r="M21" t="n">
-        <v>309.0693816375194</v>
+        <v>32.42079720694221</v>
       </c>
       <c r="N21" t="n">
-        <v>307.9379642367784</v>
+        <v>291.5398840129619</v>
       </c>
       <c r="O21" t="n">
-        <v>324.3461597540765</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P21" t="n">
-        <v>46.25421500920774</v>
+        <v>332.7385767697281</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.88875526273702</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.09756801961933</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>100.8851422783194</v>
       </c>
       <c r="L23" t="n">
-        <v>94.87140299240633</v>
+        <v>381.3557647529267</v>
       </c>
       <c r="M23" t="n">
-        <v>192.9296930996608</v>
+        <v>366.0557461162342</v>
       </c>
       <c r="N23" t="n">
-        <v>363.5567091450374</v>
+        <v>77.07234738451469</v>
       </c>
       <c r="O23" t="n">
-        <v>370.2059370767636</v>
+        <v>370.2059370767613</v>
       </c>
       <c r="P23" t="n">
-        <v>386.2540046772476</v>
+        <v>249.9508472454709</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689984</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>327.8803071789215</v>
+        <v>226.2095839884513</v>
       </c>
       <c r="M24" t="n">
         <v>32.42079720694221</v>
@@ -9729,13 +9729,13 @@
         <v>21.45360247625568</v>
       </c>
       <c r="O24" t="n">
-        <v>307.9480795302667</v>
+        <v>324.3461597540742</v>
       </c>
       <c r="P24" t="n">
-        <v>46.25421500920774</v>
+        <v>332.7385767697281</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273702</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>102.4248823198065</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>88.71849619568721</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.88875526273702</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>162.8249382845877</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>88.71849619568722</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>162.8249382845877</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>180.5534420562072</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.09756801961933</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10598,10 +10598,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>219.042770094164</v>
       </c>
       <c r="P35" t="n">
-        <v>267.0688867795926</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>114.4585605689984</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10671,19 +10671,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>32.42079720694221</v>
+        <v>492.6204680778424</v>
       </c>
       <c r="N36" t="n">
-        <v>596.3786032662182</v>
+        <v>613.3030895513815</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>46.25421500920774</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273702</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>146.8192007044005</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>142.3408550755163</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>114.4585605689984</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,28 +10899,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>59.05979475358194</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>274.4964481469574</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>613.3030895513799</v>
+        <v>613.3030895513817</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P39" t="n">
-        <v>310.0380594353359</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.88875526273702</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>266.9621133681817</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>99.76964291672492</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.0297727277897</v>
+        <v>114.4585605689984</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,28 +11136,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>59.05979475358194</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>378.1289090979149</v>
+        <v>274.4964481469574</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>613.3030895513799</v>
+        <v>613.3030895513817</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.88875526273702</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.09756801961933</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,16 +11306,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>131.0026088992976</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>267.0688867795926</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.4585605689984</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>41.39594541839878</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>23.38281759816051</v>
+        <v>613.3030895513817</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>362.7972465826326</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.037585132830515</v>
       </c>
       <c r="C11" t="n">
-        <v>204.4541069214519</v>
+        <v>204.4541069214512</v>
       </c>
       <c r="D11" t="n">
-        <v>195.4354109659799</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>217.1775485358847</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>237.6699315459143</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>149.5579236355858</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>69.80914399837933</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>159.9491672039493</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>185.2492666819062</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>204.5495249146528</v>
+        <v>204.5495249146521</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.9461227108516</v>
+        <v>215.9461227108508</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>204.454106921452</v>
+        <v>204.4541069214511</v>
       </c>
       <c r="D14" t="n">
-        <v>195.4354109659799</v>
+        <v>195.4354109659791</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>236.3493646238626</v>
+        <v>105.5004870447013</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>49.40590208536898</v>
+        <v>149.5579236355858</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>159.9491672039493</v>
+        <v>159.9491672039485</v>
       </c>
       <c r="W14" t="n">
-        <v>185.2492666819062</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>204.5495249146529</v>
+        <v>204.549524914652</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>215.9461227108508</v>
       </c>
     </row>
     <row r="15">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652850.0341028211</v>
+        <v>652850.0341028207</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652850.034102821</v>
+        <v>652850.0341028208</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>729061.4124429924</v>
+        <v>729061.4124429919</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>729061.4124429926</v>
+        <v>729061.4124429919</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>729061.4124429924</v>
+        <v>729061.4124429919</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806505.7096182337</v>
+        <v>806505.7096182342</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806505.7096182337</v>
+        <v>806505.7096182342</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806505.7096182337</v>
+        <v>806505.7096182342</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806505.7096182337</v>
+        <v>806505.7096182342</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>746729.7157196217</v>
       </c>
       <c r="C2" t="n">
-        <v>746729.7157196215</v>
+        <v>746729.7157196216</v>
       </c>
       <c r="D2" t="n">
-        <v>746729.7157196216</v>
+        <v>746729.7157196217</v>
       </c>
       <c r="E2" t="n">
         <v>652554.6281667725</v>
       </c>
       <c r="F2" t="n">
-        <v>652554.6281667724</v>
+        <v>652554.6281667727</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818276</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818274</v>
+        <v>748433.4589818278</v>
       </c>
       <c r="I2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818276</v>
       </c>
       <c r="J2" t="n">
-        <v>748433.458981827</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="K2" t="n">
         <v>748433.4589818271</v>
       </c>
       <c r="L2" t="n">
-        <v>748433.458981827</v>
+        <v>748433.4589818274</v>
       </c>
       <c r="M2" t="n">
-        <v>748433.4589818266</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818268</v>
+        <v>748433.4589818274</v>
       </c>
       <c r="O2" t="n">
-        <v>748433.4589818267</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="P2" t="n">
-        <v>748433.4589818264</v>
+        <v>748433.4589818274</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>346912.3222696492</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80799.46520607828</v>
+        <v>80799.46520607822</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154853.8671962837</v>
+        <v>154853.8671962843</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>80799.4652060783</v>
+        <v>80799.46520607818</v>
       </c>
       <c r="M3" t="n">
-        <v>61226.12551048538</v>
+        <v>61226.12551048496</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>428830.9004778579</v>
       </c>
       <c r="E4" t="n">
-        <v>319178.546396093</v>
+        <v>319178.5463960931</v>
       </c>
       <c r="F4" t="n">
-        <v>319178.546396093</v>
+        <v>319178.5463960931</v>
       </c>
       <c r="G4" t="n">
         <v>375306.2180609187</v>
@@ -26448,7 +26448,7 @@
         <v>370031.7847048189</v>
       </c>
       <c r="M4" t="n">
-        <v>370451.7424027853</v>
+        <v>370451.7424027852</v>
       </c>
       <c r="N4" t="n">
         <v>370451.7424027853</v>
@@ -26457,7 +26457,7 @@
         <v>370451.7424027853</v>
       </c>
       <c r="P4" t="n">
-        <v>370451.7424027853</v>
+        <v>370451.7424027852</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35340.22236026642</v>
+        <v>35340.22236026637</v>
       </c>
       <c r="F5" t="n">
-        <v>35340.22236026642</v>
+        <v>35340.22236026637</v>
       </c>
       <c r="G5" t="n">
-        <v>43831.13516077866</v>
+        <v>43831.13516077861</v>
       </c>
       <c r="H5" t="n">
-        <v>43831.13516077868</v>
+        <v>43831.13516077861</v>
       </c>
       <c r="I5" t="n">
-        <v>43831.13516077868</v>
+        <v>43831.13516077861</v>
       </c>
       <c r="J5" t="n">
         <v>65216.13502390746</v>
@@ -26497,19 +26497,19 @@
         <v>65216.13502390746</v>
       </c>
       <c r="L5" t="n">
-        <v>65216.13502390747</v>
+        <v>65216.13502390745</v>
       </c>
       <c r="M5" t="n">
-        <v>54231.90976079395</v>
+        <v>54231.90976079399</v>
       </c>
       <c r="N5" t="n">
-        <v>54231.90976079395</v>
+        <v>54231.90976079401</v>
       </c>
       <c r="O5" t="n">
-        <v>54231.90976079395</v>
+        <v>54231.90976079401</v>
       </c>
       <c r="P5" t="n">
-        <v>54231.90976079395</v>
+        <v>54231.90976079401</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284271.2152417639</v>
+        <v>284266.8466692967</v>
       </c>
       <c r="C6" t="n">
-        <v>284271.2152417637</v>
+        <v>284266.8466692966</v>
       </c>
       <c r="D6" t="n">
-        <v>284271.2152417638</v>
+        <v>284266.8466692967</v>
       </c>
       <c r="E6" t="n">
-        <v>-48876.46285923605</v>
+        <v>-49122.30601517221</v>
       </c>
       <c r="F6" t="n">
-        <v>298035.859410413</v>
+        <v>297790.0162544771</v>
       </c>
       <c r="G6" t="n">
-        <v>248496.6405540516</v>
+        <v>248496.640554052</v>
       </c>
       <c r="H6" t="n">
-        <v>329296.10576013</v>
+        <v>329296.1057601305</v>
       </c>
       <c r="I6" t="n">
-        <v>329296.10576013</v>
+        <v>329296.1057601302</v>
       </c>
       <c r="J6" t="n">
-        <v>158331.6720568169</v>
+        <v>158331.6720568164</v>
       </c>
       <c r="K6" t="n">
         <v>313185.5392531008</v>
       </c>
       <c r="L6" t="n">
-        <v>232386.0740470224</v>
+        <v>232386.0740470229</v>
       </c>
       <c r="M6" t="n">
-        <v>262523.6813077619</v>
+        <v>262523.6813077633</v>
       </c>
       <c r="N6" t="n">
-        <v>323749.8068182475</v>
+        <v>323749.8068182481</v>
       </c>
       <c r="O6" t="n">
-        <v>323749.8068182474</v>
+        <v>323749.8068182478</v>
       </c>
       <c r="P6" t="n">
-        <v>323749.8068182471</v>
+        <v>323749.8068182481</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="F2" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="G2" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="H2" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="I2" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="J2" t="n">
         <v>100.9993315075978</v>
@@ -26716,16 +26716,16 @@
         <v>100.9993315075978</v>
       </c>
       <c r="M2" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="N2" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="O2" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="P2" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>152.4093676232985</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4093676232985</v>
+        <v>152.4093676232986</v>
       </c>
       <c r="K3" t="n">
         <v>152.4093676232985</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="F4" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="G4" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="H4" t="n">
-        <v>286.4843617605227</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="I4" t="n">
-        <v>286.4843617605227</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="J4" t="n">
-        <v>878.3338488356467</v>
+        <v>878.3338488356466</v>
       </c>
       <c r="K4" t="n">
-        <v>878.3338488356467</v>
+        <v>878.3338488356466</v>
       </c>
       <c r="L4" t="n">
-        <v>878.3338488356467</v>
+        <v>878.3338488356466</v>
       </c>
       <c r="M4" t="n">
-        <v>591.8494870751242</v>
+        <v>591.8494870751258</v>
       </c>
       <c r="N4" t="n">
-        <v>591.8494870751242</v>
+        <v>591.849487075126</v>
       </c>
       <c r="O4" t="n">
-        <v>591.8494870751242</v>
+        <v>591.849487075126</v>
       </c>
       <c r="P4" t="n">
-        <v>591.8494870751242</v>
+        <v>591.849487075126</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G2" t="n">
         <v>100.9993315075978</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9993315075979</v>
+        <v>100.9993315075977</v>
       </c>
       <c r="M2" t="n">
-        <v>76.53265688810673</v>
+        <v>76.5326568881062</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.849487075124</v>
+        <v>591.8494870751261</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
         <v>100.9993315075978</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="C11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="E11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="F11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="G11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="H11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="I11" t="n">
         <v>147.4678724503383</v>
@@ -28141,22 +28141,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="U11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="V11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="W11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="X11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -28187,7 +28187,7 @@
         <v>95.77238994002833</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>169.4585007439111</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="X12" t="n">
-        <v>173.6603141590687</v>
+        <v>76.83689491716029</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>173.6603141590695</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28296,25 +28296,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6603141590687</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="U13" t="n">
-        <v>173.6603141590687</v>
+        <v>98.51518007845459</v>
       </c>
       <c r="V13" t="n">
-        <v>98.5151800784592</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="W13" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="X13" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590695</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="C14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="E14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="F14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="G14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="H14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="I14" t="n">
         <v>147.4678724503383</v>
@@ -28378,22 +28378,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="U14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="W14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="15">
@@ -28409,16 +28409,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>95.77238994002833</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>6.697238420142753</v>
+        <v>41.01997401403403</v>
       </c>
       <c r="U15" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="C16" t="n">
-        <v>70.65553584377324</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
@@ -28533,25 +28533,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6603141590687</v>
+        <v>98.51518007845425</v>
       </c>
       <c r="T16" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="U16" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V16" t="n">
-        <v>173.6603141590687</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X16" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.6603141590687</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="C17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="D17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="E17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="F17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="H17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="I17" t="n">
         <v>147.4678724503383</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="W17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="X17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.1133910541359</v>
@@ -28691,22 +28691,22 @@
         <v>38.832586517179</v>
       </c>
       <c r="S18" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>185.4768923348651</v>
       </c>
       <c r="U18" t="n">
-        <v>216.28827711433</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>39.18599323074579</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>238.6806309004347</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>66.6001163798844</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>53.96085663537362</v>
+        <v>166.9557145812619</v>
       </c>
       <c r="H19" t="n">
         <v>155.3353718580994</v>
@@ -28764,28 +28764,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S19" t="n">
-        <v>206.7830132042204</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.6728619675116</v>
       </c>
       <c r="U19" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="C20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="D20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="E20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="F20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="G20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="I20" t="n">
         <v>147.4678724503383</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="W20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="X20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.1133910541359</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28827711433</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -28943,10 +28943,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>9.012145145578899</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>143.5334631910039</v>
       </c>
     </row>
     <row r="22">
@@ -28959,7 +28959,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -29013,19 +29013,19 @@
         <v>229.6728619675116</v>
       </c>
       <c r="U22" t="n">
-        <v>135.2766613833545</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>274.6596456666666</v>
+        <v>22.2016899874389</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="C23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="D23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="E23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="F23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="G23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="H23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="I23" t="n">
         <v>147.4678724503383</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="W23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="X23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
     </row>
     <row r="24">
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1133910541359</v>
@@ -29135,7 +29135,7 @@
         <v>95.77238994002833</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>68.91871573117734</v>
       </c>
       <c r="U24" t="n">
-        <v>148.5659202368252</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -29238,28 +29238,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6689122231617</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7830132042204</v>
+        <v>118.1639171853085</v>
       </c>
       <c r="T25" t="n">
         <v>229.6728619675116</v>
       </c>
       <c r="U25" t="n">
-        <v>274.6596456666666</v>
+        <v>274.6596456666674</v>
       </c>
       <c r="V25" t="n">
-        <v>247.6417291969371</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29296,19 +29296,19 @@
         <v>100.9993315075978</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>100.9993315075978</v>
       </c>
-      <c r="K26" t="n">
-        <v>41.06293391993472</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M26" t="n">
         <v>100.9993315075978</v>
       </c>
       <c r="N26" t="n">
-        <v>100.9993315075978</v>
+        <v>41.06293391993444</v>
       </c>
       <c r="O26" t="n">
         <v>100.9993315075978</v>
@@ -29475,7 +29475,7 @@
         <v>100.9993315075978</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.9993315075988</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="R28" t="n">
         <v>100.9993315075978</v>
@@ -29542,16 +29542,16 @@
         <v>100.9993315075978</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9993315075978</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>100.9993315075978</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="P29" t="n">
-        <v>41.0629339199354</v>
+        <v>41.06293391993449</v>
       </c>
       <c r="Q29" t="n">
         <v>100.9993315075978</v>
@@ -29694,7 +29694,7 @@
         <v>100.9993315075978</v>
       </c>
       <c r="K31" t="n">
-        <v>100.9993315075987</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="L31" t="n">
         <v>100.9993315075978</v>
@@ -29770,22 +29770,22 @@
         <v>100.9993315075978</v>
       </c>
       <c r="J32" t="n">
-        <v>41.06293391993438</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="L32" t="n">
         <v>100.9993315075978</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9993315075978</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>100.9993315075978</v>
       </c>
       <c r="O32" t="n">
-        <v>100.9993315075978</v>
+        <v>41.06293391993461</v>
       </c>
       <c r="P32" t="n">
         <v>100.9993315075978</v>
@@ -29943,7 +29943,7 @@
         <v>100.9993315075978</v>
       </c>
       <c r="O34" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075988</v>
       </c>
       <c r="P34" t="n">
         <v>100.9993315075978</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="C35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="D35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="E35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="F35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="G35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="H35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="I35" t="n">
         <v>147.4678724503383</v>
@@ -30037,22 +30037,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="U35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="V35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="W35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="X35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.485199187628297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>58.27053909130333</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.531988395704</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30192,25 +30192,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S37" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="T37" t="n">
-        <v>177.5319883957046</v>
+        <v>75.28513465864776</v>
       </c>
       <c r="U37" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="V37" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="W37" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="X37" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.28513465864444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="C38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="D38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="E38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="F38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="G38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="H38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="I38" t="n">
         <v>147.4678724503383</v>
@@ -30274,22 +30274,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="U38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="V38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="W38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="X38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.858996783918144</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I39" t="n">
         <v>56.41154230737835</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.79880020677466</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>64.43247392518845</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.531988395704</v>
       </c>
       <c r="T40" t="n">
-        <v>75.28513465864432</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="V40" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="W40" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="X40" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="C41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="D41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="E41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="F41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="G41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="H41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="I41" t="n">
         <v>147.4678724503383</v>
@@ -30511,22 +30511,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="U41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="V41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="W41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="X41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>58.27053909129653</v>
       </c>
       <c r="H42" t="n">
         <v>95.77238994002833</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>19.43795257412435</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30666,25 +30666,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S43" t="n">
-        <v>177.5319883957046</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>75.28513465864776</v>
       </c>
       <c r="U43" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="V43" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="W43" t="n">
-        <v>75.28513465864441</v>
+        <v>177.531988395704</v>
       </c>
       <c r="X43" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.5319883957046</v>
+        <v>177.531988395704</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="C44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="D44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="E44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="F44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="G44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="H44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="I44" t="n">
         <v>147.4678724503383</v>
@@ -30748,22 +30748,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="U44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="V44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="W44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="X44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>97.63138672394652</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>115.2103425141529</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30900,28 +30900,28 @@
         <v>15.13815342172978</v>
       </c>
       <c r="R46" t="n">
-        <v>135.6689122231617</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="T46" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="U46" t="n">
-        <v>177.5319883957046</v>
+        <v>33.42205848610584</v>
       </c>
       <c r="V46" t="n">
-        <v>75.2851346586441</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="W46" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="X46" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.5319883957046</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
   </sheetData>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6127009753700439</v>
+        <v>0.612700975370044</v>
       </c>
       <c r="H26" t="n">
-        <v>6.274823864008463</v>
+        <v>6.274823864008464</v>
       </c>
       <c r="I26" t="n">
         <v>23.62115435295364</v>
       </c>
       <c r="J26" t="n">
-        <v>52.0022294083133</v>
+        <v>52.00222940831332</v>
       </c>
       <c r="K26" t="n">
-        <v>77.93786169572728</v>
+        <v>77.93786169572729</v>
       </c>
       <c r="L26" t="n">
-        <v>96.68880917070828</v>
+        <v>96.6888091707083</v>
       </c>
       <c r="M26" t="n">
         <v>107.5849301414453</v>
       </c>
       <c r="N26" t="n">
-        <v>109.3257667877154</v>
+        <v>109.3257667877155</v>
       </c>
       <c r="O26" t="n">
         <v>103.2332214638796</v>
       </c>
       <c r="P26" t="n">
-        <v>88.10716613443158</v>
+        <v>88.10716613443159</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.16481245399187</v>
+        <v>66.16481245399189</v>
       </c>
       <c r="R26" t="n">
-        <v>38.48757764408855</v>
+        <v>38.48757764408856</v>
       </c>
       <c r="S26" t="n">
         <v>13.96192347624489</v>
       </c>
       <c r="T26" t="n">
-        <v>2.682098519682368</v>
+        <v>2.682098519682369</v>
       </c>
       <c r="U26" t="n">
         <v>0.0490160780296035</v>
@@ -33017,7 +33017,7 @@
         <v>0.327823922812378</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166088938740598</v>
+        <v>3.166088938740599</v>
       </c>
       <c r="I27" t="n">
         <v>11.28692014946126</v>
@@ -33026,37 +33026,37 @@
         <v>30.97217158465542</v>
       </c>
       <c r="K27" t="n">
-        <v>52.93637441308474</v>
+        <v>52.93637441308475</v>
       </c>
       <c r="L27" t="n">
-        <v>71.179488152749</v>
+        <v>71.17948815274902</v>
       </c>
       <c r="M27" t="n">
-        <v>83.06310535469768</v>
+        <v>83.0631053546977</v>
       </c>
       <c r="N27" t="n">
-        <v>85.26153859145263</v>
+        <v>85.26153859145265</v>
       </c>
       <c r="O27" t="n">
-        <v>77.99765061755731</v>
+        <v>77.99765061755733</v>
       </c>
       <c r="P27" t="n">
-        <v>62.59999101493558</v>
+        <v>62.5999910149356</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.84643618215548</v>
+        <v>41.84643618215549</v>
       </c>
       <c r="R27" t="n">
         <v>20.35383969882467</v>
       </c>
       <c r="S27" t="n">
-        <v>6.08918558381763</v>
+        <v>6.089185583817631</v>
       </c>
       <c r="T27" t="n">
-        <v>1.32136046080954</v>
+        <v>1.321360460809541</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02156736334291961</v>
+        <v>0.02156736334291962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>0.2748365645666039</v>
       </c>
       <c r="H28" t="n">
-        <v>2.443546910419443</v>
+        <v>2.443546910419444</v>
       </c>
       <c r="I28" t="n">
-        <v>8.26508505078478</v>
+        <v>8.265085050784782</v>
       </c>
       <c r="J28" t="n">
-        <v>19.43094511485889</v>
+        <v>19.4309451148589</v>
       </c>
       <c r="K28" t="n">
         <v>31.9310117741927</v>
@@ -33111,13 +33111,13 @@
         <v>40.86070160838401</v>
       </c>
       <c r="M28" t="n">
-        <v>43.08188075292681</v>
+        <v>43.08188075292682</v>
       </c>
       <c r="N28" t="n">
-        <v>42.05748992136042</v>
+        <v>42.05748992136043</v>
       </c>
       <c r="O28" t="n">
-        <v>38.8468991443778</v>
+        <v>38.84689914437781</v>
       </c>
       <c r="P28" t="n">
         <v>33.24023322721906</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>286.4843617605225</v>
+        <v>113.3583087439451</v>
       </c>
       <c r="L11" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="M11" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>113.3583087439469</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5509272888777</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K12" t="n">
-        <v>284.7450133627702</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>268.3469331389564</v>
       </c>
       <c r="N12" t="n">
-        <v>75.43686563671015</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="O12" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605205</v>
       </c>
       <c r="P12" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>201.2117187938668</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K14" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="L14" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>275.1146388003888</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>113.3583087439469</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="P14" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>161.5509272888777</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>284.7450133627702</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="M15" t="n">
-        <v>73.69751723895774</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>286.4843617605225</v>
+        <v>75.43686563670607</v>
       </c>
       <c r="O15" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="P15" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>201.2117187938668</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>113.3583087439449</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="M17" t="n">
-        <v>113.3583087439468</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="N17" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="Q17" t="n">
         <v>161.5509272888777</v>
@@ -35963,25 +35963,25 @@
         <v>91.83494586052021</v>
       </c>
       <c r="K18" t="n">
-        <v>284.7450133627702</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>184.8136385700565</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>286.4843617605225</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="N18" t="n">
-        <v>286.4843617605225</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>268.346933138956</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>201.2117187938668</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.7280317040766</v>
+        <v>113.3583087439449</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>275.1146388003931</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="M20" t="n">
-        <v>286.4843617605227</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="P20" t="n">
-        <v>286.4843617605227</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>161.5509272888777</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K21" t="n">
         <v>284.7450133627702</v>
@@ -36206,19 +36206,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>276.6485844305772</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>286.4843617605227</v>
+        <v>270.0862815367062</v>
       </c>
       <c r="O21" t="n">
-        <v>286.4843617605227</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>201.2117187938668</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="M23" t="n">
-        <v>113.358308743947</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="N23" t="n">
-        <v>286.4843617605227</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>286.4843617605227</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="P23" t="n">
-        <v>286.4843617605227</v>
+        <v>150.181204328746</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.5509272888777</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>284.7450133627702</v>
       </c>
       <c r="L24" t="n">
-        <v>286.4843617605227</v>
+        <v>184.8136385700525</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>270.0862815367129</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>286.4843617605204</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.2117187938668</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.7273632116744</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K26" t="n">
-        <v>361.5668279841294</v>
+        <v>421.5032255717925</v>
       </c>
       <c r="L26" t="n">
-        <v>448.0881759231792</v>
+        <v>549.0875074307771</v>
       </c>
       <c r="M26" t="n">
-        <v>605.7955406925662</v>
+        <v>605.7955406925663</v>
       </c>
       <c r="N26" t="n">
-        <v>592.4779858586625</v>
+        <v>532.5415882709991</v>
       </c>
       <c r="O26" t="n">
         <v>512.3179918329258</v>
@@ -36613,10 +36613,10 @@
         <v>419.5680092138003</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.5502587964755</v>
+        <v>262.5502587964756</v>
       </c>
       <c r="R26" t="n">
-        <v>49.75500551258117</v>
+        <v>49.75500551258122</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K27" t="n">
-        <v>43.36508756622457</v>
+        <v>284.7450133627703</v>
       </c>
       <c r="L27" t="n">
         <v>440.6965034760981</v>
@@ -36683,7 +36683,7 @@
         <v>572.9957856680577</v>
       </c>
       <c r="N27" t="n">
-        <v>601.6914841703639</v>
+        <v>67.26489371943154</v>
       </c>
       <c r="O27" t="n">
         <v>474.1592170661946</v>
@@ -36692,7 +36692,7 @@
         <v>367.7473842227106</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>201.2117187938668</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9736104224877</v>
+        <v>60.97361042248774</v>
       </c>
       <c r="K28" t="n">
         <v>166.8739672662788</v>
@@ -36759,19 +36759,19 @@
         <v>243.4833456414965</v>
       </c>
       <c r="M28" t="n">
-        <v>263.2665719853748</v>
+        <v>263.2665719853749</v>
       </c>
       <c r="N28" t="n">
         <v>262.6753484487566</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3044594355005</v>
+        <v>239.3044594355006</v>
       </c>
       <c r="P28" t="n">
         <v>197.8440937531379</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.861178085869</v>
+        <v>85.86117808586808</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>421.5032255717925</v>
       </c>
       <c r="L29" t="n">
-        <v>549.087507430777</v>
+        <v>549.0875074307771</v>
       </c>
       <c r="M29" t="n">
-        <v>605.7955406925662</v>
+        <v>504.7962091849685</v>
       </c>
       <c r="N29" t="n">
         <v>592.4779858586625</v>
       </c>
       <c r="O29" t="n">
-        <v>411.318660325328</v>
+        <v>512.3179918329258</v>
       </c>
       <c r="P29" t="n">
-        <v>359.6316116261379</v>
+        <v>359.631611626137</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.5502587964755</v>
+        <v>262.5502587964756</v>
       </c>
       <c r="R29" t="n">
-        <v>49.75500551258117</v>
+        <v>49.75500551258121</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K30" t="n">
         <v>284.7450133627702</v>
@@ -36917,10 +36917,10 @@
         <v>440.6965034760981</v>
       </c>
       <c r="M30" t="n">
-        <v>130.4041410776455</v>
+        <v>572.9957856680577</v>
       </c>
       <c r="N30" t="n">
-        <v>601.6914841703639</v>
+        <v>67.26489371943154</v>
       </c>
       <c r="O30" t="n">
         <v>474.1592170661946</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.9736104224877</v>
+        <v>60.97361042248774</v>
       </c>
       <c r="K31" t="n">
-        <v>166.8739672662797</v>
+        <v>166.8739672662788</v>
       </c>
       <c r="L31" t="n">
         <v>243.4833456414965</v>
       </c>
       <c r="M31" t="n">
-        <v>263.2665719853748</v>
+        <v>263.2665719853749</v>
       </c>
       <c r="N31" t="n">
         <v>262.6753484487566</v>
       </c>
       <c r="O31" t="n">
-        <v>239.3044594355005</v>
+        <v>239.3044594355006</v>
       </c>
       <c r="P31" t="n">
         <v>197.8440937531379</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86117808586803</v>
+        <v>85.86117808586806</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.790965624011</v>
+        <v>225.7273632116744</v>
       </c>
       <c r="K32" t="n">
-        <v>320.5038940641947</v>
+        <v>421.5032255717925</v>
       </c>
       <c r="L32" t="n">
-        <v>549.0875074307771</v>
+        <v>549.087507430777</v>
       </c>
       <c r="M32" t="n">
-        <v>605.7955406925663</v>
+        <v>504.7962091849685</v>
       </c>
       <c r="N32" t="n">
         <v>592.4779858586625</v>
       </c>
       <c r="O32" t="n">
-        <v>512.3179918329258</v>
+        <v>452.3815942452626</v>
       </c>
       <c r="P32" t="n">
         <v>419.5680092138003</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5502587964756</v>
+        <v>262.5502587964755</v>
       </c>
       <c r="R32" t="n">
-        <v>49.7550055125812</v>
+        <v>49.75500551258116</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>440.6965034760981</v>
       </c>
       <c r="M33" t="n">
-        <v>130.4041410776455</v>
+        <v>572.9957856680577</v>
       </c>
       <c r="N33" t="n">
-        <v>601.6914841703639</v>
+        <v>159.0998395799516</v>
       </c>
       <c r="O33" t="n">
         <v>474.1592170661946</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97361042248772</v>
+        <v>60.97361042248768</v>
       </c>
       <c r="K34" t="n">
         <v>166.8739672662788</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4833456414965</v>
+        <v>243.4833456414964</v>
       </c>
       <c r="M34" t="n">
-        <v>263.2665719853749</v>
+        <v>263.2665719853748</v>
       </c>
       <c r="N34" t="n">
         <v>262.6753484487566</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3044594355006</v>
+        <v>239.3044594355016</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8440937531379</v>
+        <v>197.8440937531378</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86117808586806</v>
+        <v>85.861178085868</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K35" t="n">
         <v>320.5038940641947</v>
@@ -37318,10 +37318,10 @@
         <v>491.4786543510647</v>
       </c>
       <c r="O35" t="n">
-        <v>411.318660325328</v>
+        <v>135.3211947779232</v>
       </c>
       <c r="P35" t="n">
-        <v>167.2992438628676</v>
+        <v>318.5686777062025</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K36" t="n">
         <v>284.7450133627702</v>
@@ -37391,19 +37391,19 @@
         <v>440.6965034760981</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>460.1996708709002</v>
       </c>
       <c r="N36" t="n">
-        <v>574.9250007899625</v>
+        <v>591.8494870751258</v>
       </c>
       <c r="O36" t="n">
         <v>474.1592170661946</v>
       </c>
       <c r="P36" t="n">
-        <v>367.7473842227106</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>201.2117187938668</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>448.0881759231792</v>
       </c>
       <c r="M38" t="n">
-        <v>504.7962091849685</v>
+        <v>67.2478163486867</v>
       </c>
       <c r="N38" t="n">
         <v>491.4786543510647</v>
@@ -37558,10 +37558,10 @@
         <v>411.318660325328</v>
       </c>
       <c r="P38" t="n">
-        <v>42.57121215879133</v>
+        <v>318.5686777062025</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>161.5509272888777</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>284.7450133627702</v>
       </c>
       <c r="L39" t="n">
-        <v>440.6965034760981</v>
+        <v>233.1005027285586</v>
       </c>
       <c r="M39" t="n">
         <v>572.9957856680577</v>
       </c>
       <c r="N39" t="n">
-        <v>591.8494870751242</v>
+        <v>591.849487075126</v>
       </c>
       <c r="O39" t="n">
-        <v>474.1592170661946</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>263.7838444261282</v>
+        <v>367.7473842227106</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>201.2117187938668</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>320.5038940641947</v>
       </c>
       <c r="L41" t="n">
-        <v>448.0881759231792</v>
+        <v>172.0907103757754</v>
       </c>
       <c r="M41" t="n">
         <v>504.7962091849685</v>
@@ -37795,10 +37795,10 @@
         <v>411.318660325328</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>318.5686777062025</v>
       </c>
       <c r="Q41" t="n">
-        <v>42.57121215879133</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.7450133627702</v>
       </c>
       <c r="L42" t="n">
-        <v>336.732963679516</v>
+        <v>233.1005027285586</v>
       </c>
       <c r="M42" t="n">
         <v>572.9957856680577</v>
       </c>
       <c r="N42" t="n">
-        <v>591.8494870751242</v>
+        <v>591.849487075126</v>
       </c>
       <c r="O42" t="n">
-        <v>474.1592170661946</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>367.7473842227106</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>201.2117187938668</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K44" t="n">
         <v>320.5038940641947</v>
@@ -38026,16 +38026,16 @@
         <v>504.7962091849685</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4786543510647</v>
+        <v>53.93026151478288</v>
       </c>
       <c r="O44" t="n">
         <v>411.318660325328</v>
       </c>
       <c r="P44" t="n">
-        <v>167.2992438628676</v>
+        <v>318.5686777062025</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>161.5509272888777</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>284.7450133627702</v>
       </c>
       <c r="L45" t="n">
-        <v>440.6965034760981</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>572.9957856680577</v>
       </c>
       <c r="N45" t="n">
-        <v>1.929215121904832</v>
+        <v>591.849487075126</v>
       </c>
       <c r="O45" t="n">
-        <v>474.1592170661946</v>
+        <v>324.9354485890788</v>
       </c>
       <c r="P45" t="n">
         <v>367.7473842227106</v>
